--- a/base_besmart_v2.xlsx
+++ b/base_besmart_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BankRio\OneDrive - BankRio Investimentos e Consultoria Ltda - ME\Área de Trabalho\Projeto simulador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937ACE68-ADBF-4114-83D6-B64A1D5727F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DF3C80-59AD-46D5-9308-3B013D973D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DF51982C-90FB-4A4C-9760-B6C8573E55BD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DF51982C-90FB-4A4C-9760-B6C8573E55BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="57">
   <si>
     <t>Consórcio</t>
   </si>
@@ -176,6 +176,27 @@
   </si>
   <si>
     <t>Veículo Pesado - Ademilar</t>
+  </si>
+  <si>
+    <t>Previdência</t>
+  </si>
+  <si>
+    <t>Icatu (até R$299,99)</t>
+  </si>
+  <si>
+    <t>Icatu (R$300,00 - R$599,99)</t>
+  </si>
+  <si>
+    <t>Icatu (apartir de R$600,00)</t>
+  </si>
+  <si>
+    <t>Icatu Esporádico</t>
+  </si>
+  <si>
+    <t>Sulamérica Prestige (até R$5000,00)</t>
+  </si>
+  <si>
+    <t>Sulamérica Prestige Esporádico</t>
   </si>
 </sst>
 </file>
@@ -558,17 +579,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4D2DEC-1B34-4F16-81B5-68703BD101CC}">
-  <dimension ref="A1:E199"/>
+  <dimension ref="A1:E211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="C201" sqref="C201"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="E211" sqref="E211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3952,6 +3973,210 @@
         <v>2</v>
       </c>
       <c r="E199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>10</v>
+      </c>
+      <c r="B200" t="s">
+        <v>50</v>
+      </c>
+      <c r="C200" t="s">
+        <v>51</v>
+      </c>
+      <c r="D200" s="1">
+        <v>1</v>
+      </c>
+      <c r="E200">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>10</v>
+      </c>
+      <c r="B201" t="s">
+        <v>50</v>
+      </c>
+      <c r="C201" t="s">
+        <v>51</v>
+      </c>
+      <c r="D201" s="1">
+        <v>2</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202" t="s">
+        <v>50</v>
+      </c>
+      <c r="C202" t="s">
+        <v>52</v>
+      </c>
+      <c r="D202" s="1">
+        <v>1</v>
+      </c>
+      <c r="E202">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>10</v>
+      </c>
+      <c r="B203" t="s">
+        <v>50</v>
+      </c>
+      <c r="C203" t="s">
+        <v>52</v>
+      </c>
+      <c r="D203" s="1">
+        <v>2</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>10</v>
+      </c>
+      <c r="B204" t="s">
+        <v>50</v>
+      </c>
+      <c r="C204" t="s">
+        <v>53</v>
+      </c>
+      <c r="D204" s="1">
+        <v>1</v>
+      </c>
+      <c r="E204">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>10</v>
+      </c>
+      <c r="B205" t="s">
+        <v>50</v>
+      </c>
+      <c r="C205" t="s">
+        <v>53</v>
+      </c>
+      <c r="D205" s="1">
+        <v>2</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>10</v>
+      </c>
+      <c r="B206" t="s">
+        <v>50</v>
+      </c>
+      <c r="C206" t="s">
+        <v>54</v>
+      </c>
+      <c r="D206" s="1">
+        <v>1</v>
+      </c>
+      <c r="E206">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>10</v>
+      </c>
+      <c r="B207" t="s">
+        <v>50</v>
+      </c>
+      <c r="C207" t="s">
+        <v>54</v>
+      </c>
+      <c r="D207" s="1">
+        <v>2</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208" t="s">
+        <v>50</v>
+      </c>
+      <c r="C208" t="s">
+        <v>55</v>
+      </c>
+      <c r="D208" s="1">
+        <v>1</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>10</v>
+      </c>
+      <c r="B209" t="s">
+        <v>50</v>
+      </c>
+      <c r="C209" t="s">
+        <v>55</v>
+      </c>
+      <c r="D209" s="1">
+        <v>2</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>10</v>
+      </c>
+      <c r="B210" t="s">
+        <v>50</v>
+      </c>
+      <c r="C210" t="s">
+        <v>56</v>
+      </c>
+      <c r="D210" s="1">
+        <v>1</v>
+      </c>
+      <c r="E210">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>10</v>
+      </c>
+      <c r="B211" t="s">
+        <v>50</v>
+      </c>
+      <c r="C211" t="s">
+        <v>56</v>
+      </c>
+      <c r="D211" s="1">
+        <v>2</v>
+      </c>
+      <c r="E211">
         <v>0</v>
       </c>
     </row>

--- a/base_besmart_v2.xlsx
+++ b/base_besmart_v2.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BankRio\OneDrive - BankRio Investimentos e Consultoria Ltda - ME\Área de Trabalho\Projeto simulador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DF3C80-59AD-46D5-9308-3B013D973D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB07B460-1BB5-4E93-A16B-318CFDAE70CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DF51982C-90FB-4A4C-9760-B6C8573E55BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DF51982C-90FB-4A4C-9760-B6C8573E55BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="55">
   <si>
     <t>Consórcio</t>
   </si>
@@ -79,15 +78,6 @@
     <t>Seguro de Vida</t>
   </si>
   <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>Plano de Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PJ </t>
-  </si>
-  <si>
     <t>Produto</t>
   </si>
   <si>
@@ -97,9 +87,6 @@
     <t>Mês</t>
   </si>
   <si>
-    <t>porcem_Comissao Bruta</t>
-  </si>
-  <si>
     <t>Private - MAG</t>
   </si>
   <si>
@@ -197,22 +184,20 @@
   </si>
   <si>
     <t>Sulamérica Prestige Esporádico</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plano de Saúde </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -261,10 +246,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,32 +563,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4D2DEC-1B34-4F16-81B5-68703BD101CC}">
-  <dimension ref="A1:E211"/>
+  <dimension ref="A1:E202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="E211" sqref="E211"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="E202" sqref="E202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -612,206 +596,206 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
       </c>
       <c r="E6">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
       </c>
       <c r="E8">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
       </c>
       <c r="E9">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
         <v>9</v>
       </c>
       <c r="E10">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
         <v>10</v>
       </c>
       <c r="E11">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
         <v>11</v>
       </c>
       <c r="E12">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
         <v>12</v>
       </c>
       <c r="E13">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -819,16 +803,16 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0.01</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -836,16 +820,16 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
       </c>
       <c r="E15">
-        <v>0.01</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -853,16 +837,16 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
       </c>
       <c r="E16">
-        <v>0.01</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -870,16 +854,16 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
         <v>4</v>
       </c>
       <c r="E17">
-        <v>0.01</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -887,16 +871,16 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
         <v>5</v>
       </c>
       <c r="E18">
-        <v>0.01</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -904,16 +888,16 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1">
         <v>6</v>
       </c>
       <c r="E19">
-        <v>0.01</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -921,16 +905,16 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="1">
         <v>7</v>
       </c>
       <c r="E20">
-        <v>0.01</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -938,16 +922,16 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1">
         <v>8</v>
       </c>
       <c r="E21">
-        <v>0.01</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -955,16 +939,16 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1">
         <v>9</v>
       </c>
       <c r="E22">
-        <v>0.01</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -972,16 +956,16 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1">
         <v>10</v>
       </c>
       <c r="E23">
-        <v>0.01</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -989,16 +973,16 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1">
         <v>11</v>
       </c>
       <c r="E24">
-        <v>0.01</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1006,16 +990,16 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1">
         <v>12</v>
       </c>
       <c r="E25">
-        <v>0.01</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1023,16 +1007,16 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>2.8000000000000001E-2</v>
+        <v>2.5600000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1040,16 +1024,16 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1">
         <v>2</v>
       </c>
       <c r="E27">
-        <v>2.8000000000000001E-2</v>
+        <v>2.5600000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1057,16 +1041,16 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
       </c>
       <c r="E28">
-        <v>2.8000000000000001E-2</v>
+        <v>2.5600000000000001E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1074,16 +1058,16 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" s="1">
         <v>4</v>
       </c>
       <c r="E29">
-        <v>2.8000000000000001E-2</v>
+        <v>2.5600000000000001E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1091,16 +1075,16 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" s="1">
         <v>5</v>
       </c>
       <c r="E30">
-        <v>2.8000000000000001E-2</v>
+        <v>2.5600000000000001E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1108,16 +1092,16 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="1">
         <v>6</v>
       </c>
       <c r="E31">
-        <v>2.8000000000000001E-2</v>
+        <v>2.5600000000000001E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1125,16 +1109,16 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" s="1">
         <v>7</v>
       </c>
       <c r="E32">
-        <v>2.8000000000000001E-2</v>
+        <v>2.5600000000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1142,16 +1126,16 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" s="1">
         <v>8</v>
       </c>
       <c r="E33">
-        <v>2.8000000000000001E-2</v>
+        <v>2.5600000000000001E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1159,16 +1143,16 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" s="1">
         <v>9</v>
       </c>
       <c r="E34">
-        <v>2.8000000000000001E-2</v>
+        <v>2.5600000000000001E-2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1176,16 +1160,16 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" s="1">
         <v>10</v>
       </c>
       <c r="E35">
-        <v>2.8000000000000001E-2</v>
+        <v>2.5600000000000001E-2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1193,16 +1177,16 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" s="1">
         <v>11</v>
       </c>
       <c r="E36">
-        <v>2.8000000000000001E-2</v>
+        <v>2.5600000000000001E-2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1210,16 +1194,16 @@
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" s="1">
         <v>12</v>
       </c>
       <c r="E37">
-        <v>2.8000000000000001E-2</v>
+        <v>2.5600000000000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1227,16 +1211,16 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>2.5600000000000001E-2</v>
+        <v>1.3599999999999999E-2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1244,16 +1228,16 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
       </c>
       <c r="E39">
-        <v>2.5600000000000001E-2</v>
+        <v>1.3599999999999999E-2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1261,16 +1245,16 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
       </c>
       <c r="E40">
-        <v>2.5600000000000001E-2</v>
+        <v>1.3599999999999999E-2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1278,16 +1262,16 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" s="1">
         <v>4</v>
       </c>
       <c r="E41">
-        <v>2.5600000000000001E-2</v>
+        <v>1.3599999999999999E-2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1295,16 +1279,16 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" s="1">
         <v>5</v>
       </c>
       <c r="E42">
-        <v>2.5600000000000001E-2</v>
+        <v>1.3599999999999999E-2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1312,16 +1296,16 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" s="1">
         <v>6</v>
       </c>
       <c r="E43">
-        <v>2.5600000000000001E-2</v>
+        <v>1.3599999999999999E-2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1329,16 +1313,16 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" s="1">
         <v>7</v>
       </c>
       <c r="E44">
-        <v>2.5600000000000001E-2</v>
+        <v>1.3599999999999999E-2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1346,16 +1330,16 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" s="1">
         <v>8</v>
       </c>
       <c r="E45">
-        <v>2.5600000000000001E-2</v>
+        <v>1.3599999999999999E-2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1363,16 +1347,16 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" s="1">
         <v>9</v>
       </c>
       <c r="E46">
-        <v>2.5600000000000001E-2</v>
+        <v>1.3599999999999999E-2</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1380,16 +1364,16 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" s="1">
         <v>10</v>
       </c>
       <c r="E47">
-        <v>2.5600000000000001E-2</v>
+        <v>1.3599999999999999E-2</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1397,16 +1381,16 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" s="1">
         <v>11</v>
       </c>
       <c r="E48">
-        <v>2.5600000000000001E-2</v>
+        <v>1.3599999999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1414,424 +1398,424 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" s="1">
         <v>12</v>
       </c>
       <c r="E49">
-        <v>2.5600000000000001E-2</v>
+        <v>1.3599999999999999E-2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
       </c>
       <c r="E50">
-        <v>1.3599999999999999E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D51" s="1">
         <v>2</v>
       </c>
       <c r="E51">
-        <v>1.3599999999999999E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D52" s="1">
         <v>3</v>
       </c>
       <c r="E52">
-        <v>1.3599999999999999E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D53" s="1">
         <v>4</v>
       </c>
       <c r="E53">
-        <v>1.3599999999999999E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D54" s="1">
         <v>5</v>
       </c>
       <c r="E54">
-        <v>1.3599999999999999E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D55" s="1">
         <v>6</v>
       </c>
       <c r="E55">
-        <v>1.3599999999999999E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D56" s="1">
         <v>7</v>
       </c>
       <c r="E56">
-        <v>1.3599999999999999E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D57" s="1">
         <v>8</v>
       </c>
       <c r="E57">
-        <v>1.3599999999999999E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D58" s="1">
         <v>9</v>
       </c>
       <c r="E58">
-        <v>1.3599999999999999E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D59" s="1">
         <v>10</v>
       </c>
       <c r="E59">
-        <v>1.3599999999999999E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D60" s="1">
         <v>11</v>
       </c>
       <c r="E60">
-        <v>1.3599999999999999E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D61" s="1">
         <v>12</v>
       </c>
       <c r="E61">
-        <v>1.3599999999999999E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>1.0200000000000001E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D63" s="1">
         <v>2</v>
       </c>
       <c r="E63">
-        <v>1.0200000000000001E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D64" s="1">
         <v>3</v>
       </c>
       <c r="E64">
-        <v>1.0200000000000001E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D65" s="1">
         <v>4</v>
       </c>
       <c r="E65">
-        <v>1.0200000000000001E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D66" s="1">
         <v>5</v>
       </c>
       <c r="E66">
-        <v>1.0200000000000001E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D67" s="1">
         <v>6</v>
       </c>
       <c r="E67">
-        <v>1.0200000000000001E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D68" s="1">
         <v>7</v>
       </c>
       <c r="E68">
-        <v>1.0200000000000001E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D69" s="1">
         <v>8</v>
       </c>
       <c r="E69">
-        <v>1.0200000000000001E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D70" s="1">
         <v>9</v>
       </c>
       <c r="E70">
-        <v>1.0200000000000001E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D71" s="1">
         <v>10</v>
       </c>
       <c r="E71">
-        <v>1.0200000000000001E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D72" s="1">
         <v>11</v>
       </c>
       <c r="E72">
-        <v>1.0200000000000001E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D73" s="1">
         <v>12</v>
       </c>
       <c r="E73">
-        <v>1.0200000000000001E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -1839,16 +1823,16 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D74" s="1">
         <v>1</v>
       </c>
       <c r="E74">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -1856,16 +1840,16 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D75" s="1">
         <v>2</v>
       </c>
       <c r="E75">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -1873,16 +1857,16 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D76" s="1">
         <v>3</v>
       </c>
       <c r="E76">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -1890,16 +1874,16 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D77" s="1">
         <v>4</v>
       </c>
       <c r="E77">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -1907,16 +1891,16 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D78" s="1">
         <v>5</v>
       </c>
       <c r="E78">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -1924,16 +1908,16 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D79" s="1">
         <v>6</v>
       </c>
       <c r="E79">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -1941,16 +1925,16 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D80" s="1">
         <v>7</v>
       </c>
       <c r="E80">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -1958,16 +1942,16 @@
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D81" s="1">
         <v>8</v>
       </c>
       <c r="E81">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -1975,16 +1959,16 @@
         <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D82" s="1">
         <v>9</v>
       </c>
       <c r="E82">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -1992,16 +1976,16 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D83" s="1">
         <v>10</v>
       </c>
       <c r="E83">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2009,16 +1993,16 @@
         <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D84" s="1">
         <v>11</v>
       </c>
       <c r="E84">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2026,220 +2010,220 @@
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D85" s="1">
         <v>12</v>
       </c>
       <c r="E85">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D86" s="1">
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0.01</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D87" s="1">
         <v>2</v>
       </c>
       <c r="E87">
-        <v>0.01</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D88" s="1">
         <v>3</v>
       </c>
       <c r="E88">
-        <v>0.01</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D89" s="1">
         <v>4</v>
       </c>
       <c r="E89">
-        <v>0.01</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D90" s="1">
         <v>5</v>
       </c>
       <c r="E90">
-        <v>0.01</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D91" s="1">
         <v>6</v>
       </c>
       <c r="E91">
-        <v>0.01</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D92" s="1">
         <v>7</v>
       </c>
       <c r="E92">
-        <v>0.01</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D93" s="1">
         <v>8</v>
       </c>
       <c r="E93">
-        <v>0.01</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D94" s="1">
         <v>9</v>
       </c>
       <c r="E94">
-        <v>0.01</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D95" s="1">
         <v>10</v>
       </c>
       <c r="E95">
-        <v>0.01</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D96" s="1">
         <v>11</v>
       </c>
       <c r="E96">
-        <v>0.01</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D97" s="1">
         <v>12</v>
       </c>
       <c r="E97">
-        <v>0.01</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2247,16 +2231,16 @@
         <v>13</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D98" s="1">
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0.35</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2264,16 +2248,16 @@
         <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D99" s="1">
         <v>2</v>
       </c>
       <c r="E99">
-        <v>0.35</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2281,16 +2265,16 @@
         <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D100" s="1">
         <v>3</v>
       </c>
       <c r="E100">
-        <v>0.35</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2298,16 +2282,16 @@
         <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D101" s="1">
         <v>4</v>
       </c>
       <c r="E101">
-        <v>0.35</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2315,16 +2299,16 @@
         <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D102" s="1">
         <v>5</v>
       </c>
       <c r="E102">
-        <v>0.35</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2332,16 +2316,16 @@
         <v>13</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D103" s="1">
         <v>6</v>
       </c>
       <c r="E103">
-        <v>0.35</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2349,16 +2333,16 @@
         <v>13</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D104" s="1">
         <v>7</v>
       </c>
       <c r="E104">
-        <v>0.35</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2366,16 +2350,16 @@
         <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D105" s="1">
         <v>8</v>
       </c>
       <c r="E105">
-        <v>0.35</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2383,16 +2367,16 @@
         <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D106" s="1">
         <v>9</v>
       </c>
       <c r="E106">
-        <v>0.35</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2400,16 +2384,16 @@
         <v>13</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D107" s="1">
         <v>10</v>
       </c>
       <c r="E107">
-        <v>0.35</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2417,16 +2401,16 @@
         <v>13</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D108" s="1">
         <v>11</v>
       </c>
       <c r="E108">
-        <v>0.35</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2434,220 +2418,220 @@
         <v>13</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D109" s="1">
         <v>12</v>
       </c>
       <c r="E109">
-        <v>0.35</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D110" s="1">
         <v>1</v>
       </c>
       <c r="E110">
-        <v>3.5000000000000003E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D111" s="1">
         <v>2</v>
       </c>
       <c r="E111">
-        <v>3.5000000000000003E-2</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D112" s="1">
         <v>3</v>
       </c>
       <c r="E112">
-        <v>3.5000000000000003E-2</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D113" s="1">
         <v>4</v>
       </c>
       <c r="E113">
-        <v>3.5000000000000003E-2</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D114" s="1">
         <v>5</v>
       </c>
       <c r="E114">
-        <v>3.5000000000000003E-2</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D115" s="1">
         <v>6</v>
       </c>
       <c r="E115">
-        <v>3.5000000000000003E-2</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" s="1">
         <v>13</v>
       </c>
-      <c r="B116" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="1">
-        <v>7</v>
-      </c>
       <c r="E116">
-        <v>3.5000000000000003E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D117" s="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E117">
-        <v>3.5000000000000003E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D118" s="1">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E118">
-        <v>3.5000000000000003E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D119" s="1">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E119">
-        <v>3.5000000000000003E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D120" s="1">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="E120">
-        <v>3.5000000000000003E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D121" s="1">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E121">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -2658,13 +2642,13 @@
         <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D122" s="1">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -2675,13 +2659,13 @@
         <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D123" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E123">
-        <v>0.45</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -2692,13 +2676,13 @@
         <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D124" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E124">
-        <v>0.45</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -2709,13 +2693,13 @@
         <v>16</v>
       </c>
       <c r="C125" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D125" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E125">
-        <v>0.45</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -2726,13 +2710,13 @@
         <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D126" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E126">
-        <v>0.45</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -2743,13 +2727,13 @@
         <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D127" s="1">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E127">
-        <v>0.45</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -2760,13 +2744,13 @@
         <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D128" s="1">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E128">
-        <v>0.45</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -2777,13 +2761,13 @@
         <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D129" s="1">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E129">
-        <v>7.0000000000000007E-2</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -2794,13 +2778,13 @@
         <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D130" s="1">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E130">
-        <v>7.0000000000000007E-2</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -2811,13 +2795,13 @@
         <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D131" s="1">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="E131">
-        <v>7.0000000000000007E-2</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -2828,13 +2812,13 @@
         <v>16</v>
       </c>
       <c r="C132" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D132" s="1">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="E132">
-        <v>7.0000000000000007E-2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -2845,13 +2829,13 @@
         <v>16</v>
       </c>
       <c r="C133" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D133" s="1">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="E133">
-        <v>7.0000000000000007E-2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -2862,13 +2846,13 @@
         <v>16</v>
       </c>
       <c r="C134" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D134" s="1">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="E134">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -2879,13 +2863,13 @@
         <v>16</v>
       </c>
       <c r="C135" t="s">
+        <v>22</v>
+      </c>
+      <c r="D135" s="1">
         <v>25</v>
       </c>
-      <c r="D135" s="1">
-        <v>1</v>
-      </c>
       <c r="E135">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -2896,13 +2880,13 @@
         <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D136" s="1">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="E136">
-        <v>0.318</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -2913,13 +2897,13 @@
         <v>16</v>
       </c>
       <c r="C137" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D137" s="1">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E137">
-        <v>0.318</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -2930,13 +2914,13 @@
         <v>16</v>
       </c>
       <c r="C138" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D138" s="1">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="E138">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -2947,13 +2931,13 @@
         <v>16</v>
       </c>
       <c r="C139" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D139" s="1">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E139">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -2964,13 +2948,13 @@
         <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D140" s="1">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="E140">
-        <v>0.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -2981,13 +2965,13 @@
         <v>16</v>
       </c>
       <c r="C141" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D141" s="1">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="E141">
-        <v>0.21</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -2998,13 +2982,13 @@
         <v>16</v>
       </c>
       <c r="C142" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D142" s="1">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="E142">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -3015,13 +2999,13 @@
         <v>16</v>
       </c>
       <c r="C143" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D143" s="1">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="E143">
-        <v>0.21</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -3032,13 +3016,13 @@
         <v>16</v>
       </c>
       <c r="C144" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D144" s="1">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E144">
-        <v>1.5</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -3049,13 +3033,13 @@
         <v>16</v>
       </c>
       <c r="C145" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D145" s="1">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="E145">
-        <v>0.3</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -3066,13 +3050,13 @@
         <v>16</v>
       </c>
       <c r="C146" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D146" s="1">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E146">
-        <v>0.3</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -3083,13 +3067,13 @@
         <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D147" s="1">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="E147">
-        <v>0.2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -3100,13 +3084,13 @@
         <v>16</v>
       </c>
       <c r="C148" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D148" s="1">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E148">
-        <v>0.2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -3117,13 +3101,13 @@
         <v>16</v>
       </c>
       <c r="C149" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D149" s="1">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="E149">
-        <v>0.2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -3131,16 +3115,16 @@
         <v>10</v>
       </c>
       <c r="B150" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C150" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D150" s="1">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="E150">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -3148,16 +3132,16 @@
         <v>10</v>
       </c>
       <c r="B151" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C151" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D151" s="1">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="E151">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -3165,16 +3149,16 @@
         <v>10</v>
       </c>
       <c r="B152" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C152" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D152" s="1">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -3182,16 +3166,16 @@
         <v>10</v>
       </c>
       <c r="B153" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D153" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E153">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -3199,16 +3183,16 @@
         <v>10</v>
       </c>
       <c r="B154" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D154" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E154">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -3216,16 +3200,16 @@
         <v>10</v>
       </c>
       <c r="B155" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D155" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E155">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -3233,16 +3217,16 @@
         <v>10</v>
       </c>
       <c r="B156" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D156" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E156">
-        <v>7.4999999999999997E-2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -3250,16 +3234,16 @@
         <v>10</v>
       </c>
       <c r="B157" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D157" s="1">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="E157">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -3267,16 +3251,16 @@
         <v>10</v>
       </c>
       <c r="B158" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D158" s="1">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="E158">
-        <v>7.4999999999999997E-2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -3284,16 +3268,16 @@
         <v>10</v>
       </c>
       <c r="B159" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D159" s="1">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="E159">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -3301,16 +3285,16 @@
         <v>10</v>
       </c>
       <c r="B160" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D160" s="1">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="E160">
-        <v>7.4999999999999997E-2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -3318,16 +3302,16 @@
         <v>10</v>
       </c>
       <c r="B161" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D161" s="1">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="E161">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -3335,16 +3319,16 @@
         <v>10</v>
       </c>
       <c r="B162" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C162" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D162" s="1">
         <v>1</v>
       </c>
       <c r="E162">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -3352,10 +3336,10 @@
         <v>10</v>
       </c>
       <c r="B163" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C163" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D163" s="1">
         <v>2</v>
@@ -3369,16 +3353,16 @@
         <v>10</v>
       </c>
       <c r="B164" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C164" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D164" s="1">
         <v>1</v>
       </c>
       <c r="E164">
-        <v>0.25</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -3386,10 +3370,10 @@
         <v>10</v>
       </c>
       <c r="B165" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C165" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D165" s="1">
         <v>2</v>
@@ -3403,16 +3387,16 @@
         <v>10</v>
       </c>
       <c r="B166" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C166" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
       </c>
       <c r="E166">
-        <v>0.25</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -3420,10 +3404,10 @@
         <v>10</v>
       </c>
       <c r="B167" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C167" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D167" s="1">
         <v>2</v>
@@ -3437,16 +3421,16 @@
         <v>10</v>
       </c>
       <c r="B168" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C168" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D168" s="1">
         <v>1</v>
       </c>
       <c r="E168">
-        <v>0.2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -3454,10 +3438,10 @@
         <v>10</v>
       </c>
       <c r="B169" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C169" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D169" s="1">
         <v>2</v>
@@ -3471,16 +3455,16 @@
         <v>10</v>
       </c>
       <c r="B170" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C170" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D170" s="1">
         <v>1</v>
       </c>
       <c r="E170">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -3488,10 +3472,10 @@
         <v>10</v>
       </c>
       <c r="B171" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C171" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D171" s="1">
         <v>2</v>
@@ -3505,16 +3489,16 @@
         <v>10</v>
       </c>
       <c r="B172" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C172" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D172" s="1">
         <v>1</v>
       </c>
       <c r="E172">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -3522,10 +3506,10 @@
         <v>10</v>
       </c>
       <c r="B173" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C173" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D173" s="1">
         <v>2</v>
@@ -3539,16 +3523,16 @@
         <v>10</v>
       </c>
       <c r="B174" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C174" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D174" s="1">
         <v>1</v>
       </c>
       <c r="E174">
-        <v>0.35</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -3556,10 +3540,10 @@
         <v>10</v>
       </c>
       <c r="B175" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C175" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D175" s="1">
         <v>2</v>
@@ -3576,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="C176" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D176" s="1">
         <v>1</v>
       </c>
       <c r="E176">
-        <v>3.5000000000000003E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -3593,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="C177" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D177" s="1">
         <v>2</v>
@@ -3610,13 +3594,13 @@
         <v>0</v>
       </c>
       <c r="C178" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D178" s="1">
         <v>1</v>
       </c>
       <c r="E178">
-        <v>3.5000000000000003E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -3627,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="C179" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D179" s="1">
         <v>2</v>
@@ -3644,13 +3628,13 @@
         <v>0</v>
       </c>
       <c r="C180" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D180" s="1">
         <v>1</v>
       </c>
       <c r="E180">
-        <v>3.5000000000000003E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -3661,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="C181" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D181" s="1">
         <v>2</v>
@@ -3678,13 +3662,13 @@
         <v>0</v>
       </c>
       <c r="C182" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D182" s="1">
         <v>1</v>
       </c>
       <c r="E182">
-        <v>0.04</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -3695,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="C183" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D183" s="1">
         <v>2</v>
@@ -3712,13 +3696,13 @@
         <v>0</v>
       </c>
       <c r="C184" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D184" s="1">
         <v>1</v>
       </c>
       <c r="E184">
-        <v>0.04</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -3729,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="C185" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D185" s="1">
         <v>2</v>
@@ -3746,13 +3730,13 @@
         <v>0</v>
       </c>
       <c r="C186" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D186" s="1">
         <v>1</v>
       </c>
       <c r="E186">
-        <v>3.5000000000000003E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -3763,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="C187" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D187" s="1">
         <v>2</v>
@@ -3777,16 +3761,16 @@
         <v>10</v>
       </c>
       <c r="B188" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C188" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D188" s="1">
         <v>1</v>
       </c>
       <c r="E188">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -3794,10 +3778,10 @@
         <v>10</v>
       </c>
       <c r="B189" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C189" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D189" s="1">
         <v>2</v>
@@ -3811,16 +3795,16 @@
         <v>10</v>
       </c>
       <c r="B190" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C190" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D190" s="1">
         <v>1</v>
       </c>
       <c r="E190">
-        <v>0.04</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -3828,10 +3812,10 @@
         <v>10</v>
       </c>
       <c r="B191" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C191" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D191" s="1">
         <v>2</v>
@@ -3845,16 +3829,16 @@
         <v>10</v>
       </c>
       <c r="B192" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C192" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D192" s="1">
         <v>1</v>
       </c>
       <c r="E192">
-        <v>0.04</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -3862,10 +3846,10 @@
         <v>10</v>
       </c>
       <c r="B193" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C193" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D193" s="1">
         <v>2</v>
@@ -3879,16 +3863,16 @@
         <v>10</v>
       </c>
       <c r="B194" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C194" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D194" s="1">
         <v>1</v>
       </c>
       <c r="E194">
-        <v>2.5000000000000001E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -3896,10 +3880,10 @@
         <v>10</v>
       </c>
       <c r="B195" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C195" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D195" s="1">
         <v>2</v>
@@ -3913,16 +3897,16 @@
         <v>10</v>
       </c>
       <c r="B196" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C196" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D196" s="1">
         <v>1</v>
       </c>
       <c r="E196">
-        <v>2.5000000000000001E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -3930,10 +3914,10 @@
         <v>10</v>
       </c>
       <c r="B197" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C197" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D197" s="1">
         <v>2</v>
@@ -3947,16 +3931,16 @@
         <v>10</v>
       </c>
       <c r="B198" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C198" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D198" s="1">
         <v>1</v>
       </c>
       <c r="E198">
-        <v>2.5000000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -3964,10 +3948,10 @@
         <v>10</v>
       </c>
       <c r="B199" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C199" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D199" s="1">
         <v>2</v>
@@ -3981,16 +3965,16 @@
         <v>10</v>
       </c>
       <c r="B200" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C200" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D200" s="1">
         <v>1</v>
       </c>
       <c r="E200">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -3998,16 +3982,16 @@
         <v>10</v>
       </c>
       <c r="B201" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C201" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D201" s="1">
         <v>2</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -4015,2374 +3999,20 @@
         <v>10</v>
       </c>
       <c r="B202" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C202" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D202" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E202">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>10</v>
-      </c>
-      <c r="B203" t="s">
-        <v>50</v>
-      </c>
-      <c r="C203" t="s">
-        <v>52</v>
-      </c>
-      <c r="D203" s="1">
-        <v>2</v>
-      </c>
-      <c r="E203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>10</v>
-      </c>
-      <c r="B204" t="s">
-        <v>50</v>
-      </c>
-      <c r="C204" t="s">
-        <v>53</v>
-      </c>
-      <c r="D204" s="1">
-        <v>1</v>
-      </c>
-      <c r="E204">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>10</v>
-      </c>
-      <c r="B205" t="s">
-        <v>50</v>
-      </c>
-      <c r="C205" t="s">
-        <v>53</v>
-      </c>
-      <c r="D205" s="1">
-        <v>2</v>
-      </c>
-      <c r="E205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>10</v>
-      </c>
-      <c r="B206" t="s">
-        <v>50</v>
-      </c>
-      <c r="C206" t="s">
-        <v>54</v>
-      </c>
-      <c r="D206" s="1">
-        <v>1</v>
-      </c>
-      <c r="E206">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>10</v>
-      </c>
-      <c r="B207" t="s">
-        <v>50</v>
-      </c>
-      <c r="C207" t="s">
-        <v>54</v>
-      </c>
-      <c r="D207" s="1">
-        <v>2</v>
-      </c>
-      <c r="E207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>10</v>
-      </c>
-      <c r="B208" t="s">
-        <v>50</v>
-      </c>
-      <c r="C208" t="s">
-        <v>55</v>
-      </c>
-      <c r="D208" s="1">
-        <v>1</v>
-      </c>
-      <c r="E208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>10</v>
-      </c>
-      <c r="B209" t="s">
-        <v>50</v>
-      </c>
-      <c r="C209" t="s">
-        <v>55</v>
-      </c>
-      <c r="D209" s="1">
-        <v>2</v>
-      </c>
-      <c r="E209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>10</v>
-      </c>
-      <c r="B210" t="s">
-        <v>50</v>
-      </c>
-      <c r="C210" t="s">
-        <v>56</v>
-      </c>
-      <c r="D210" s="1">
-        <v>1</v>
-      </c>
-      <c r="E210">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>10</v>
-      </c>
-      <c r="B211" t="s">
-        <v>50</v>
-      </c>
-      <c r="C211" t="s">
-        <v>56</v>
-      </c>
-      <c r="D211" s="1">
-        <v>2</v>
-      </c>
-      <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3871DC1A-36F1-42F7-96D2-E5DCD2569A42}">
-  <dimension ref="A1:F145"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F145"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5</v>
-      </c>
-      <c r="F6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6</v>
-      </c>
-      <c r="F7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1">
-        <v>7</v>
-      </c>
-      <c r="F8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1">
-        <v>8</v>
-      </c>
-      <c r="F9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1">
-        <v>9</v>
-      </c>
-      <c r="F10"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="1">
-        <v>10</v>
-      </c>
-      <c r="F11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1">
-        <v>11</v>
-      </c>
-      <c r="F12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="1">
-        <v>12</v>
-      </c>
-      <c r="F13"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="F15"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3</v>
-      </c>
-      <c r="F16"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="1">
-        <v>4</v>
-      </c>
-      <c r="F17"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="1">
-        <v>5</v>
-      </c>
-      <c r="F18"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="1">
-        <v>6</v>
-      </c>
-      <c r="F19"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="1">
-        <v>7</v>
-      </c>
-      <c r="F20"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="1">
-        <v>8</v>
-      </c>
-      <c r="F21"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="1">
-        <v>9</v>
-      </c>
-      <c r="F22"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="1">
-        <v>10</v>
-      </c>
-      <c r="F23"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="1">
-        <v>11</v>
-      </c>
-      <c r="F24"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="1">
-        <v>12</v>
-      </c>
-      <c r="F25"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2</v>
-      </c>
-      <c r="F27"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
-        <v>3</v>
-      </c>
-      <c r="F28"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1">
-        <v>4</v>
-      </c>
-      <c r="F29"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
-        <v>5</v>
-      </c>
-      <c r="F30"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>6</v>
-      </c>
-      <c r="F31"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
-        <v>7</v>
-      </c>
-      <c r="F32"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
-        <v>8</v>
-      </c>
-      <c r="F33"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
-        <v>9</v>
-      </c>
-      <c r="F34"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1">
-        <v>10</v>
-      </c>
-      <c r="F35"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1">
-        <v>11</v>
-      </c>
-      <c r="F36"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1">
-        <v>12</v>
-      </c>
-      <c r="F37"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1">
-        <v>2</v>
-      </c>
-      <c r="F39"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1">
-        <v>3</v>
-      </c>
-      <c r="F40"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1">
-        <v>4</v>
-      </c>
-      <c r="F41"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1">
-        <v>5</v>
-      </c>
-      <c r="F42"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1">
-        <v>6</v>
-      </c>
-      <c r="F43"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1">
-        <v>7</v>
-      </c>
-      <c r="F44"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1">
-        <v>8</v>
-      </c>
-      <c r="F45"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="1">
-        <v>9</v>
-      </c>
-      <c r="F46"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1">
-        <v>10</v>
-      </c>
-      <c r="F47"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1">
-        <v>11</v>
-      </c>
-      <c r="F48"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="1">
-        <v>12</v>
-      </c>
-      <c r="F49"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="F50"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="1">
-        <v>2</v>
-      </c>
-      <c r="F51"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="1">
-        <v>3</v>
-      </c>
-      <c r="F52"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="1">
-        <v>4</v>
-      </c>
-      <c r="F53"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="1">
-        <v>5</v>
-      </c>
-      <c r="F54"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="1">
-        <v>6</v>
-      </c>
-      <c r="F55"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="1">
-        <v>7</v>
-      </c>
-      <c r="F56"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="1">
-        <v>8</v>
-      </c>
-      <c r="F57"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" t="s">
-        <v>2</v>
-      </c>
-      <c r="C58" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="1">
-        <v>9</v>
-      </c>
-      <c r="F58"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="1">
-        <v>10</v>
-      </c>
-      <c r="F59"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="1">
-        <v>11</v>
-      </c>
-      <c r="F60"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" t="s">
-        <v>2</v>
-      </c>
-      <c r="C61" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="1">
-        <v>12</v>
-      </c>
-      <c r="F61"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="1">
-        <v>1</v>
-      </c>
-      <c r="F62"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="1">
-        <v>2</v>
-      </c>
-      <c r="F63"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="1">
-        <v>3</v>
-      </c>
-      <c r="F64"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="1">
-        <v>4</v>
-      </c>
-      <c r="F65"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" s="1">
-        <v>5</v>
-      </c>
-      <c r="F66"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" s="1">
-        <v>6</v>
-      </c>
-      <c r="F67"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="1">
-        <v>7</v>
-      </c>
-      <c r="F68"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="1">
-        <v>8</v>
-      </c>
-      <c r="F69"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>4</v>
-      </c>
-      <c r="B70" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="1">
-        <v>9</v>
-      </c>
-      <c r="F70"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>4</v>
-      </c>
-      <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="1">
-        <v>10</v>
-      </c>
-      <c r="F71"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>4</v>
-      </c>
-      <c r="B72" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="1">
-        <v>11</v>
-      </c>
-      <c r="F72"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>4</v>
-      </c>
-      <c r="B73" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="1">
-        <v>12</v>
-      </c>
-      <c r="F73"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="1">
-        <v>1</v>
-      </c>
-      <c r="F74"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>4</v>
-      </c>
-      <c r="B75" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="1">
-        <v>2</v>
-      </c>
-      <c r="F75"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="1">
-        <v>3</v>
-      </c>
-      <c r="F76"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" s="1">
-        <v>4</v>
-      </c>
-      <c r="F77"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="1">
-        <v>5</v>
-      </c>
-      <c r="F78"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="1">
-        <v>6</v>
-      </c>
-      <c r="F79"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="1">
-        <v>7</v>
-      </c>
-      <c r="F80"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="1">
-        <v>8</v>
-      </c>
-      <c r="F81"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>4</v>
-      </c>
-      <c r="B82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="1">
-        <v>9</v>
-      </c>
-      <c r="F82"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>4</v>
-      </c>
-      <c r="B83" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" s="1">
-        <v>10</v>
-      </c>
-      <c r="F83"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>4</v>
-      </c>
-      <c r="B84" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84" s="1">
-        <v>11</v>
-      </c>
-      <c r="F84"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>4</v>
-      </c>
-      <c r="B85" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="1">
-        <v>12</v>
-      </c>
-      <c r="F85"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>6</v>
-      </c>
-      <c r="B86" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" s="1">
-        <v>1</v>
-      </c>
-      <c r="F86"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>6</v>
-      </c>
-      <c r="B87" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" s="1">
-        <v>2</v>
-      </c>
-      <c r="F87"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>6</v>
-      </c>
-      <c r="B88" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" s="1">
-        <v>3</v>
-      </c>
-      <c r="F88"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" s="1">
-        <v>4</v>
-      </c>
-      <c r="F89"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>6</v>
-      </c>
-      <c r="B90" t="s">
-        <v>6</v>
-      </c>
-      <c r="C90" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="1">
-        <v>5</v>
-      </c>
-      <c r="F90"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>6</v>
-      </c>
-      <c r="B91" t="s">
-        <v>6</v>
-      </c>
-      <c r="C91" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" s="1">
-        <v>6</v>
-      </c>
-      <c r="F91"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>6</v>
-      </c>
-      <c r="B92" t="s">
-        <v>6</v>
-      </c>
-      <c r="C92" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="1">
-        <v>7</v>
-      </c>
-      <c r="F92"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>6</v>
-      </c>
-      <c r="B93" t="s">
-        <v>6</v>
-      </c>
-      <c r="C93" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="1">
-        <v>8</v>
-      </c>
-      <c r="F93"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>6</v>
-      </c>
-      <c r="B94" t="s">
-        <v>6</v>
-      </c>
-      <c r="C94" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="1">
-        <v>9</v>
-      </c>
-      <c r="F94"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>6</v>
-      </c>
-      <c r="B95" t="s">
-        <v>6</v>
-      </c>
-      <c r="C95" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" s="1">
-        <v>10</v>
-      </c>
-      <c r="F95"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>6</v>
-      </c>
-      <c r="B96" t="s">
-        <v>6</v>
-      </c>
-      <c r="C96" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" s="1">
-        <v>11</v>
-      </c>
-      <c r="F96"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>6</v>
-      </c>
-      <c r="B97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" s="1">
-        <v>12</v>
-      </c>
-      <c r="F97"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>9</v>
-      </c>
-      <c r="B98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" t="s">
-        <v>7</v>
-      </c>
-      <c r="D98" s="1">
-        <v>1</v>
-      </c>
-      <c r="F98"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>9</v>
-      </c>
-      <c r="B99" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99" s="1">
-        <v>2</v>
-      </c>
-      <c r="F99"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>9</v>
-      </c>
-      <c r="B100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" t="s">
-        <v>7</v>
-      </c>
-      <c r="D100" s="1">
-        <v>3</v>
-      </c>
-      <c r="F100"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>9</v>
-      </c>
-      <c r="B101" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" t="s">
-        <v>7</v>
-      </c>
-      <c r="D101" s="1">
-        <v>4</v>
-      </c>
-      <c r="F101"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>9</v>
-      </c>
-      <c r="B102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" t="s">
-        <v>7</v>
-      </c>
-      <c r="D102" s="1">
-        <v>5</v>
-      </c>
-      <c r="F102"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>9</v>
-      </c>
-      <c r="B103" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" t="s">
-        <v>7</v>
-      </c>
-      <c r="D103" s="1">
-        <v>6</v>
-      </c>
-      <c r="F103"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>9</v>
-      </c>
-      <c r="B104" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" t="s">
-        <v>7</v>
-      </c>
-      <c r="D104" s="1">
-        <v>7</v>
-      </c>
-      <c r="F104"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>9</v>
-      </c>
-      <c r="B105" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" t="s">
-        <v>7</v>
-      </c>
-      <c r="D105" s="1">
-        <v>8</v>
-      </c>
-      <c r="F105"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>9</v>
-      </c>
-      <c r="B106" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" t="s">
-        <v>7</v>
-      </c>
-      <c r="D106" s="1">
-        <v>9</v>
-      </c>
-      <c r="F106"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>9</v>
-      </c>
-      <c r="B107" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" t="s">
-        <v>7</v>
-      </c>
-      <c r="D107" s="1">
-        <v>10</v>
-      </c>
-      <c r="F107"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>9</v>
-      </c>
-      <c r="B108" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" t="s">
-        <v>7</v>
-      </c>
-      <c r="D108" s="1">
-        <v>11</v>
-      </c>
-      <c r="F108"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>9</v>
-      </c>
-      <c r="B109" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" s="1">
-        <v>12</v>
-      </c>
-      <c r="F109"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>9</v>
-      </c>
-      <c r="B110" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="1">
-        <v>1</v>
-      </c>
-      <c r="F110"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>9</v>
-      </c>
-      <c r="B111" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="1">
-        <v>2</v>
-      </c>
-      <c r="F111"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>9</v>
-      </c>
-      <c r="B112" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="1">
-        <v>3</v>
-      </c>
-      <c r="F112"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>9</v>
-      </c>
-      <c r="B113" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="1">
-        <v>4</v>
-      </c>
-      <c r="F113"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>9</v>
-      </c>
-      <c r="B114" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="1">
-        <v>5</v>
-      </c>
-      <c r="F114"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>9</v>
-      </c>
-      <c r="B115" t="s">
-        <v>8</v>
-      </c>
-      <c r="C115" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="1">
-        <v>6</v>
-      </c>
-      <c r="F115"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>9</v>
-      </c>
-      <c r="B116" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="1">
-        <v>7</v>
-      </c>
-      <c r="F116"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>9</v>
-      </c>
-      <c r="B117" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" t="s">
-        <v>8</v>
-      </c>
-      <c r="D117" s="1">
-        <v>8</v>
-      </c>
-      <c r="F117"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>9</v>
-      </c>
-      <c r="B118" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" s="1">
-        <v>9</v>
-      </c>
-      <c r="F118"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>9</v>
-      </c>
-      <c r="B119" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" s="1">
-        <v>10</v>
-      </c>
-      <c r="F119"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>9</v>
-      </c>
-      <c r="B120" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" s="1">
-        <v>11</v>
-      </c>
-      <c r="F120"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>9</v>
-      </c>
-      <c r="B121" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" t="s">
-        <v>8</v>
-      </c>
-      <c r="D121" s="1">
-        <v>12</v>
-      </c>
-      <c r="F121"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>13</v>
-      </c>
-      <c r="B122" t="s">
-        <v>11</v>
-      </c>
-      <c r="C122" t="s">
-        <v>11</v>
-      </c>
-      <c r="D122" s="1">
-        <v>1</v>
-      </c>
-      <c r="F122"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>13</v>
-      </c>
-      <c r="B123" t="s">
-        <v>11</v>
-      </c>
-      <c r="C123" t="s">
-        <v>11</v>
-      </c>
-      <c r="D123" s="1">
-        <v>2</v>
-      </c>
-      <c r="F123"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>13</v>
-      </c>
-      <c r="B124" t="s">
-        <v>11</v>
-      </c>
-      <c r="C124" t="s">
-        <v>11</v>
-      </c>
-      <c r="D124" s="1">
-        <v>3</v>
-      </c>
-      <c r="F124"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>13</v>
-      </c>
-      <c r="B125" t="s">
-        <v>11</v>
-      </c>
-      <c r="C125" t="s">
-        <v>11</v>
-      </c>
-      <c r="D125" s="1">
-        <v>4</v>
-      </c>
-      <c r="F125"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>13</v>
-      </c>
-      <c r="B126" t="s">
-        <v>11</v>
-      </c>
-      <c r="C126" t="s">
-        <v>11</v>
-      </c>
-      <c r="D126" s="1">
-        <v>5</v>
-      </c>
-      <c r="F126"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>13</v>
-      </c>
-      <c r="B127" t="s">
-        <v>11</v>
-      </c>
-      <c r="C127" t="s">
-        <v>11</v>
-      </c>
-      <c r="D127" s="1">
-        <v>6</v>
-      </c>
-      <c r="F127"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>13</v>
-      </c>
-      <c r="B128" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" t="s">
-        <v>11</v>
-      </c>
-      <c r="D128" s="1">
-        <v>7</v>
-      </c>
-      <c r="F128"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>13</v>
-      </c>
-      <c r="B129" t="s">
-        <v>11</v>
-      </c>
-      <c r="C129" t="s">
-        <v>11</v>
-      </c>
-      <c r="D129" s="1">
-        <v>8</v>
-      </c>
-      <c r="F129"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>13</v>
-      </c>
-      <c r="B130" t="s">
-        <v>11</v>
-      </c>
-      <c r="C130" t="s">
-        <v>11</v>
-      </c>
-      <c r="D130" s="1">
-        <v>9</v>
-      </c>
-      <c r="F130"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>13</v>
-      </c>
-      <c r="B131" t="s">
-        <v>11</v>
-      </c>
-      <c r="C131" t="s">
-        <v>11</v>
-      </c>
-      <c r="D131" s="1">
-        <v>10</v>
-      </c>
-      <c r="F131"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>13</v>
-      </c>
-      <c r="B132" t="s">
-        <v>11</v>
-      </c>
-      <c r="C132" t="s">
-        <v>11</v>
-      </c>
-      <c r="D132" s="1">
-        <v>11</v>
-      </c>
-      <c r="F132"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>13</v>
-      </c>
-      <c r="B133" t="s">
-        <v>11</v>
-      </c>
-      <c r="C133" t="s">
-        <v>11</v>
-      </c>
-      <c r="D133" s="1">
-        <v>12</v>
-      </c>
-      <c r="F133"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>13</v>
-      </c>
-      <c r="B134" t="s">
-        <v>12</v>
-      </c>
-      <c r="C134" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" s="1">
-        <v>1</v>
-      </c>
-      <c r="F134"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>13</v>
-      </c>
-      <c r="B135" t="s">
-        <v>12</v>
-      </c>
-      <c r="C135" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="1">
-        <v>2</v>
-      </c>
-      <c r="F135"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>13</v>
-      </c>
-      <c r="B136" t="s">
-        <v>12</v>
-      </c>
-      <c r="C136" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="1">
-        <v>3</v>
-      </c>
-      <c r="F136"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>13</v>
-      </c>
-      <c r="B137" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137" s="1">
-        <v>4</v>
-      </c>
-      <c r="F137"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>13</v>
-      </c>
-      <c r="B138" t="s">
-        <v>12</v>
-      </c>
-      <c r="C138" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" s="1">
-        <v>5</v>
-      </c>
-      <c r="F138"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>13</v>
-      </c>
-      <c r="B139" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="1">
-        <v>6</v>
-      </c>
-      <c r="F139"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>13</v>
-      </c>
-      <c r="B140" t="s">
-        <v>12</v>
-      </c>
-      <c r="C140" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="1">
-        <v>7</v>
-      </c>
-      <c r="F140"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>13</v>
-      </c>
-      <c r="B141" t="s">
-        <v>12</v>
-      </c>
-      <c r="C141" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="1">
-        <v>8</v>
-      </c>
-      <c r="F141"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>13</v>
-      </c>
-      <c r="B142" t="s">
-        <v>12</v>
-      </c>
-      <c r="C142" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="1">
-        <v>9</v>
-      </c>
-      <c r="F142"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>13</v>
-      </c>
-      <c r="B143" t="s">
-        <v>12</v>
-      </c>
-      <c r="C143" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143" s="1">
-        <v>10</v>
-      </c>
-      <c r="F143"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>13</v>
-      </c>
-      <c r="B144" t="s">
-        <v>12</v>
-      </c>
-      <c r="C144" t="s">
-        <v>12</v>
-      </c>
-      <c r="D144" s="1">
-        <v>11</v>
-      </c>
-      <c r="F144"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>13</v>
-      </c>
-      <c r="B145" t="s">
-        <v>12</v>
-      </c>
-      <c r="C145" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="1">
-        <v>12</v>
-      </c>
-      <c r="F145"/>
-    </row>
-  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/base_besmart_v2.xlsx
+++ b/base_besmart_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BankRio\OneDrive - BankRio Investimentos e Consultoria Ltda - ME\Área de Trabalho\Projeto simulador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB07B460-1BB5-4E93-A16B-318CFDAE70CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09ADBEC-266D-451D-9CDD-C23F4D7DB7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DF51982C-90FB-4A4C-9760-B6C8573E55BD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="89">
   <si>
     <t>Consórcio</t>
   </si>
@@ -190,6 +190,108 @@
   </si>
   <si>
     <t xml:space="preserve">Plano de Saúde </t>
+  </si>
+  <si>
+    <t>Plano de Saúde (PF - Coletivo)</t>
+  </si>
+  <si>
+    <t>Clube Care - Cemeru</t>
+  </si>
+  <si>
+    <t>Clube Care - Cemeru OURO PME</t>
+  </si>
+  <si>
+    <t>Clube Care - Cemeru FIT PME</t>
+  </si>
+  <si>
+    <t>Clube Care - Intermédica</t>
+  </si>
+  <si>
+    <t>Qualivida Unimed Rio (até 63 anos)</t>
+  </si>
+  <si>
+    <t>Qualivida Unimed Rio (entre 64 e 69 anos)</t>
+  </si>
+  <si>
+    <t>Qualicorp Assim Saúde</t>
+  </si>
+  <si>
+    <t>Qualicorp Sul América, Bradesco, Amil</t>
+  </si>
+  <si>
+    <t>Qualicorp Amil Fácil</t>
+  </si>
+  <si>
+    <t>Qualicorp Unimed Rio</t>
+  </si>
+  <si>
+    <t>Qualicorp Unimed Rio -Exclusivo</t>
+  </si>
+  <si>
+    <t>Qualicorp Ex-Cliente da mesma operadora</t>
+  </si>
+  <si>
+    <t>All Care Amil, Facil, Assim</t>
+  </si>
+  <si>
+    <t>Clube Care - Health Med</t>
+  </si>
+  <si>
+    <t>All Care Integral/Caberj</t>
+  </si>
+  <si>
+    <t>Supermed Golden Cross</t>
+  </si>
+  <si>
+    <t>Abplus Caberj</t>
+  </si>
+  <si>
+    <t>Unimed Leste Fluminense - Adesão Online</t>
+  </si>
+  <si>
+    <t>A4 - Integral/Pop</t>
+  </si>
+  <si>
+    <t>Plano de Saúde (PF - Individual)</t>
+  </si>
+  <si>
+    <t>Amil Dental</t>
+  </si>
+  <si>
+    <t>Golden Dental</t>
+  </si>
+  <si>
+    <t>Unimed Rio Saúde (até 69)</t>
+  </si>
+  <si>
+    <t>Unimed Rio Dental</t>
+  </si>
+  <si>
+    <t>Leve Saúde PF</t>
+  </si>
+  <si>
+    <t>Assim (até 58 anos)</t>
+  </si>
+  <si>
+    <t>Assim (entre 59 e 64 anos)</t>
+  </si>
+  <si>
+    <t>Samoc (até 43)</t>
+  </si>
+  <si>
+    <t>Samoc (entre 44 e 58 anos)</t>
+  </si>
+  <si>
+    <t>Samoc (a partir de 59 anos)</t>
+  </si>
+  <si>
+    <t>OdontoPrev - Dental</t>
+  </si>
+  <si>
+    <t>Mais Dental PF</t>
+  </si>
+  <si>
+    <t>Prima Vida - Dental</t>
   </si>
 </sst>
 </file>
@@ -219,7 +321,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -242,13 +344,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,17 +677,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4D2DEC-1B34-4F16-81B5-68703BD101CC}">
-  <dimension ref="A1:E202"/>
+  <dimension ref="A1:E306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="E202" sqref="E202"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="E307" sqref="E307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4011,6 +4125,1774 @@
         <v>1</v>
       </c>
     </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>10</v>
+      </c>
+      <c r="B203" t="s">
+        <v>55</v>
+      </c>
+      <c r="C203" t="s">
+        <v>56</v>
+      </c>
+      <c r="D203" s="2">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>10</v>
+      </c>
+      <c r="B204" t="s">
+        <v>55</v>
+      </c>
+      <c r="C204" t="s">
+        <v>56</v>
+      </c>
+      <c r="D204" s="2">
+        <v>2</v>
+      </c>
+      <c r="E204">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>10</v>
+      </c>
+      <c r="B205" t="s">
+        <v>55</v>
+      </c>
+      <c r="C205" t="s">
+        <v>56</v>
+      </c>
+      <c r="D205" s="2">
+        <v>3</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>10</v>
+      </c>
+      <c r="B206" t="s">
+        <v>55</v>
+      </c>
+      <c r="C206" t="s">
+        <v>57</v>
+      </c>
+      <c r="D206" s="2">
+        <v>1</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>10</v>
+      </c>
+      <c r="B207" t="s">
+        <v>55</v>
+      </c>
+      <c r="C207" t="s">
+        <v>57</v>
+      </c>
+      <c r="D207" s="2">
+        <v>2</v>
+      </c>
+      <c r="E207">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208" t="s">
+        <v>55</v>
+      </c>
+      <c r="C208" t="s">
+        <v>57</v>
+      </c>
+      <c r="D208" s="2">
+        <v>3</v>
+      </c>
+      <c r="E208">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>10</v>
+      </c>
+      <c r="B209" t="s">
+        <v>55</v>
+      </c>
+      <c r="C209" t="s">
+        <v>57</v>
+      </c>
+      <c r="D209" s="2">
+        <v>4</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>10</v>
+      </c>
+      <c r="B210" t="s">
+        <v>55</v>
+      </c>
+      <c r="C210" t="s">
+        <v>58</v>
+      </c>
+      <c r="D210" s="2">
+        <v>1</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>10</v>
+      </c>
+      <c r="B211" t="s">
+        <v>55</v>
+      </c>
+      <c r="C211" t="s">
+        <v>58</v>
+      </c>
+      <c r="D211" s="2">
+        <v>2</v>
+      </c>
+      <c r="E211">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>10</v>
+      </c>
+      <c r="B212" t="s">
+        <v>55</v>
+      </c>
+      <c r="C212" t="s">
+        <v>58</v>
+      </c>
+      <c r="D212" s="2">
+        <v>3</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>10</v>
+      </c>
+      <c r="B213" t="s">
+        <v>55</v>
+      </c>
+      <c r="C213" t="s">
+        <v>59</v>
+      </c>
+      <c r="D213" s="2">
+        <v>1</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>10</v>
+      </c>
+      <c r="B214" t="s">
+        <v>55</v>
+      </c>
+      <c r="C214" t="s">
+        <v>59</v>
+      </c>
+      <c r="D214" s="2">
+        <v>2</v>
+      </c>
+      <c r="E214">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>10</v>
+      </c>
+      <c r="B215" t="s">
+        <v>55</v>
+      </c>
+      <c r="C215" t="s">
+        <v>59</v>
+      </c>
+      <c r="D215" s="2">
+        <v>3</v>
+      </c>
+      <c r="E215">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>10</v>
+      </c>
+      <c r="B216" t="s">
+        <v>55</v>
+      </c>
+      <c r="C216" t="s">
+        <v>59</v>
+      </c>
+      <c r="D216" s="2">
+        <v>4</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>10</v>
+      </c>
+      <c r="B217" t="s">
+        <v>55</v>
+      </c>
+      <c r="C217" t="s">
+        <v>69</v>
+      </c>
+      <c r="D217" s="2">
+        <v>1</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>10</v>
+      </c>
+      <c r="B218" t="s">
+        <v>55</v>
+      </c>
+      <c r="C218" t="s">
+        <v>69</v>
+      </c>
+      <c r="D218" s="2">
+        <v>2</v>
+      </c>
+      <c r="E218">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>10</v>
+      </c>
+      <c r="B219" t="s">
+        <v>55</v>
+      </c>
+      <c r="C219" t="s">
+        <v>69</v>
+      </c>
+      <c r="D219" s="2">
+        <v>3</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>10</v>
+      </c>
+      <c r="B220" t="s">
+        <v>55</v>
+      </c>
+      <c r="C220" t="s">
+        <v>60</v>
+      </c>
+      <c r="D220" s="2">
+        <v>1</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>10</v>
+      </c>
+      <c r="B221" t="s">
+        <v>55</v>
+      </c>
+      <c r="C221" t="s">
+        <v>60</v>
+      </c>
+      <c r="D221" s="2">
+        <v>2</v>
+      </c>
+      <c r="E221">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>10</v>
+      </c>
+      <c r="B222" t="s">
+        <v>55</v>
+      </c>
+      <c r="C222" t="s">
+        <v>60</v>
+      </c>
+      <c r="D222" s="2">
+        <v>3</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>10</v>
+      </c>
+      <c r="B223" t="s">
+        <v>55</v>
+      </c>
+      <c r="C223" t="s">
+        <v>61</v>
+      </c>
+      <c r="D223" s="2">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>10</v>
+      </c>
+      <c r="B224" t="s">
+        <v>55</v>
+      </c>
+      <c r="C224" t="s">
+        <v>61</v>
+      </c>
+      <c r="D224" s="2">
+        <v>2</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>10</v>
+      </c>
+      <c r="B225" t="s">
+        <v>55</v>
+      </c>
+      <c r="C225" t="s">
+        <v>62</v>
+      </c>
+      <c r="D225" s="2">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>10</v>
+      </c>
+      <c r="B226" t="s">
+        <v>55</v>
+      </c>
+      <c r="C226" t="s">
+        <v>62</v>
+      </c>
+      <c r="D226" s="2">
+        <v>2</v>
+      </c>
+      <c r="E226">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>10</v>
+      </c>
+      <c r="B227" t="s">
+        <v>55</v>
+      </c>
+      <c r="C227" t="s">
+        <v>62</v>
+      </c>
+      <c r="D227" s="2">
+        <v>3</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>10</v>
+      </c>
+      <c r="B228" t="s">
+        <v>55</v>
+      </c>
+      <c r="C228" t="s">
+        <v>63</v>
+      </c>
+      <c r="D228" s="2">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>10</v>
+      </c>
+      <c r="B229" t="s">
+        <v>55</v>
+      </c>
+      <c r="C229" t="s">
+        <v>63</v>
+      </c>
+      <c r="D229" s="2">
+        <v>2</v>
+      </c>
+      <c r="E229">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>10</v>
+      </c>
+      <c r="B230" t="s">
+        <v>55</v>
+      </c>
+      <c r="C230" t="s">
+        <v>63</v>
+      </c>
+      <c r="D230" s="2">
+        <v>3</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>10</v>
+      </c>
+      <c r="B231" t="s">
+        <v>55</v>
+      </c>
+      <c r="C231" t="s">
+        <v>64</v>
+      </c>
+      <c r="D231" s="2">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>10</v>
+      </c>
+      <c r="B232" t="s">
+        <v>55</v>
+      </c>
+      <c r="C232" t="s">
+        <v>64</v>
+      </c>
+      <c r="D232" s="2">
+        <v>2</v>
+      </c>
+      <c r="E232">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>10</v>
+      </c>
+      <c r="B233" t="s">
+        <v>55</v>
+      </c>
+      <c r="C233" t="s">
+        <v>64</v>
+      </c>
+      <c r="D233" s="2">
+        <v>3</v>
+      </c>
+      <c r="E233">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>10</v>
+      </c>
+      <c r="B234" t="s">
+        <v>55</v>
+      </c>
+      <c r="C234" t="s">
+        <v>64</v>
+      </c>
+      <c r="D234" s="2">
+        <v>4</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>10</v>
+      </c>
+      <c r="B235" t="s">
+        <v>55</v>
+      </c>
+      <c r="C235" t="s">
+        <v>65</v>
+      </c>
+      <c r="D235" s="2">
+        <v>1</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>10</v>
+      </c>
+      <c r="B236" t="s">
+        <v>55</v>
+      </c>
+      <c r="C236" t="s">
+        <v>65</v>
+      </c>
+      <c r="D236" s="2">
+        <v>2</v>
+      </c>
+      <c r="E236">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>10</v>
+      </c>
+      <c r="B237" t="s">
+        <v>55</v>
+      </c>
+      <c r="C237" t="s">
+        <v>65</v>
+      </c>
+      <c r="D237" s="2">
+        <v>3</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>10</v>
+      </c>
+      <c r="B238" t="s">
+        <v>55</v>
+      </c>
+      <c r="C238" t="s">
+        <v>66</v>
+      </c>
+      <c r="D238" s="2">
+        <v>1</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>10</v>
+      </c>
+      <c r="B239" t="s">
+        <v>55</v>
+      </c>
+      <c r="C239" t="s">
+        <v>66</v>
+      </c>
+      <c r="D239" s="2">
+        <v>2</v>
+      </c>
+      <c r="E239">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>10</v>
+      </c>
+      <c r="B240" t="s">
+        <v>55</v>
+      </c>
+      <c r="C240" t="s">
+        <v>66</v>
+      </c>
+      <c r="D240" s="2">
+        <v>3</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>10</v>
+      </c>
+      <c r="B241" t="s">
+        <v>55</v>
+      </c>
+      <c r="C241" t="s">
+        <v>67</v>
+      </c>
+      <c r="D241" s="2">
+        <v>1</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>10</v>
+      </c>
+      <c r="B242" t="s">
+        <v>55</v>
+      </c>
+      <c r="C242" t="s">
+        <v>67</v>
+      </c>
+      <c r="D242" s="2">
+        <v>2</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>10</v>
+      </c>
+      <c r="B243" t="s">
+        <v>55</v>
+      </c>
+      <c r="C243" t="s">
+        <v>68</v>
+      </c>
+      <c r="D243" s="2">
+        <v>1</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>10</v>
+      </c>
+      <c r="B244" t="s">
+        <v>55</v>
+      </c>
+      <c r="C244" t="s">
+        <v>68</v>
+      </c>
+      <c r="D244" s="2">
+        <v>2</v>
+      </c>
+      <c r="E244">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>10</v>
+      </c>
+      <c r="B245" t="s">
+        <v>55</v>
+      </c>
+      <c r="C245" t="s">
+        <v>68</v>
+      </c>
+      <c r="D245" s="2">
+        <v>3</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>10</v>
+      </c>
+      <c r="B246" t="s">
+        <v>55</v>
+      </c>
+      <c r="C246" t="s">
+        <v>70</v>
+      </c>
+      <c r="D246" s="2">
+        <v>1</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>10</v>
+      </c>
+      <c r="B247" t="s">
+        <v>55</v>
+      </c>
+      <c r="C247" t="s">
+        <v>70</v>
+      </c>
+      <c r="D247" s="2">
+        <v>2</v>
+      </c>
+      <c r="E247">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>10</v>
+      </c>
+      <c r="B248" t="s">
+        <v>55</v>
+      </c>
+      <c r="C248" t="s">
+        <v>70</v>
+      </c>
+      <c r="D248" s="2">
+        <v>3</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>10</v>
+      </c>
+      <c r="B249" t="s">
+        <v>55</v>
+      </c>
+      <c r="C249" t="s">
+        <v>71</v>
+      </c>
+      <c r="D249" s="2">
+        <v>1</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>10</v>
+      </c>
+      <c r="B250" t="s">
+        <v>55</v>
+      </c>
+      <c r="C250" t="s">
+        <v>71</v>
+      </c>
+      <c r="D250" s="2">
+        <v>2</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>10</v>
+      </c>
+      <c r="B251" t="s">
+        <v>55</v>
+      </c>
+      <c r="C251" t="s">
+        <v>72</v>
+      </c>
+      <c r="D251" s="2">
+        <v>1</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>10</v>
+      </c>
+      <c r="B252" t="s">
+        <v>55</v>
+      </c>
+      <c r="C252" t="s">
+        <v>72</v>
+      </c>
+      <c r="D252" s="2">
+        <v>2</v>
+      </c>
+      <c r="E252">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>10</v>
+      </c>
+      <c r="B253" t="s">
+        <v>55</v>
+      </c>
+      <c r="C253" t="s">
+        <v>72</v>
+      </c>
+      <c r="D253" s="2">
+        <v>3</v>
+      </c>
+      <c r="E253">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>10</v>
+      </c>
+      <c r="B254" t="s">
+        <v>55</v>
+      </c>
+      <c r="C254" t="s">
+        <v>72</v>
+      </c>
+      <c r="D254" s="2">
+        <v>4</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>10</v>
+      </c>
+      <c r="B255" t="s">
+        <v>55</v>
+      </c>
+      <c r="C255" t="s">
+        <v>73</v>
+      </c>
+      <c r="D255" s="2">
+        <v>1</v>
+      </c>
+      <c r="E255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>10</v>
+      </c>
+      <c r="B256" t="s">
+        <v>55</v>
+      </c>
+      <c r="C256" t="s">
+        <v>73</v>
+      </c>
+      <c r="D256" s="2">
+        <v>2</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>10</v>
+      </c>
+      <c r="B257" t="s">
+        <v>55</v>
+      </c>
+      <c r="C257" t="s">
+        <v>74</v>
+      </c>
+      <c r="D257" s="2">
+        <v>1</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>10</v>
+      </c>
+      <c r="B258" t="s">
+        <v>55</v>
+      </c>
+      <c r="C258" t="s">
+        <v>74</v>
+      </c>
+      <c r="D258" s="2">
+        <v>2</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>10</v>
+      </c>
+      <c r="B259" t="s">
+        <v>75</v>
+      </c>
+      <c r="C259" t="s">
+        <v>76</v>
+      </c>
+      <c r="D259" s="2">
+        <v>1</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>10</v>
+      </c>
+      <c r="B260" t="s">
+        <v>75</v>
+      </c>
+      <c r="C260" t="s">
+        <v>76</v>
+      </c>
+      <c r="D260" s="2">
+        <v>2</v>
+      </c>
+      <c r="E260">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>10</v>
+      </c>
+      <c r="B261" t="s">
+        <v>75</v>
+      </c>
+      <c r="C261" t="s">
+        <v>76</v>
+      </c>
+      <c r="D261" s="2">
+        <v>3</v>
+      </c>
+      <c r="E261">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>10</v>
+      </c>
+      <c r="B262" t="s">
+        <v>75</v>
+      </c>
+      <c r="C262" t="s">
+        <v>76</v>
+      </c>
+      <c r="D262" s="2">
+        <v>4</v>
+      </c>
+      <c r="E262">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>10</v>
+      </c>
+      <c r="B263" t="s">
+        <v>75</v>
+      </c>
+      <c r="C263" t="s">
+        <v>76</v>
+      </c>
+      <c r="D263" s="2">
+        <v>5</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>10</v>
+      </c>
+      <c r="B264" t="s">
+        <v>75</v>
+      </c>
+      <c r="C264" t="s">
+        <v>77</v>
+      </c>
+      <c r="D264" s="2">
+        <v>1</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>10</v>
+      </c>
+      <c r="B265" t="s">
+        <v>75</v>
+      </c>
+      <c r="C265" t="s">
+        <v>77</v>
+      </c>
+      <c r="D265" s="2">
+        <v>2</v>
+      </c>
+      <c r="E265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>10</v>
+      </c>
+      <c r="B266" t="s">
+        <v>75</v>
+      </c>
+      <c r="C266" t="s">
+        <v>77</v>
+      </c>
+      <c r="D266" s="2">
+        <v>3</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>10</v>
+      </c>
+      <c r="B267" t="s">
+        <v>75</v>
+      </c>
+      <c r="C267" t="s">
+        <v>78</v>
+      </c>
+      <c r="D267" s="2">
+        <v>1</v>
+      </c>
+      <c r="E267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>10</v>
+      </c>
+      <c r="B268" t="s">
+        <v>75</v>
+      </c>
+      <c r="C268" t="s">
+        <v>78</v>
+      </c>
+      <c r="D268" s="2">
+        <v>2</v>
+      </c>
+      <c r="E268">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>10</v>
+      </c>
+      <c r="B269" t="s">
+        <v>75</v>
+      </c>
+      <c r="C269" t="s">
+        <v>78</v>
+      </c>
+      <c r="D269" s="2">
+        <v>3</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>10</v>
+      </c>
+      <c r="B270" t="s">
+        <v>75</v>
+      </c>
+      <c r="C270" t="s">
+        <v>79</v>
+      </c>
+      <c r="D270" s="2">
+        <v>1</v>
+      </c>
+      <c r="E270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>10</v>
+      </c>
+      <c r="B271" t="s">
+        <v>75</v>
+      </c>
+      <c r="C271" t="s">
+        <v>79</v>
+      </c>
+      <c r="D271" s="2">
+        <v>2</v>
+      </c>
+      <c r="E271">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>10</v>
+      </c>
+      <c r="B272" t="s">
+        <v>75</v>
+      </c>
+      <c r="C272" t="s">
+        <v>79</v>
+      </c>
+      <c r="D272" s="2">
+        <v>3</v>
+      </c>
+      <c r="E272">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>10</v>
+      </c>
+      <c r="B273" t="s">
+        <v>75</v>
+      </c>
+      <c r="C273" t="s">
+        <v>79</v>
+      </c>
+      <c r="D273" s="2">
+        <v>4</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>10</v>
+      </c>
+      <c r="B274" t="s">
+        <v>75</v>
+      </c>
+      <c r="C274" t="s">
+        <v>80</v>
+      </c>
+      <c r="D274" s="2">
+        <v>1</v>
+      </c>
+      <c r="E274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>10</v>
+      </c>
+      <c r="B275" t="s">
+        <v>75</v>
+      </c>
+      <c r="C275" t="s">
+        <v>80</v>
+      </c>
+      <c r="D275" s="2">
+        <v>2</v>
+      </c>
+      <c r="E275">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>10</v>
+      </c>
+      <c r="B276" t="s">
+        <v>75</v>
+      </c>
+      <c r="C276" t="s">
+        <v>80</v>
+      </c>
+      <c r="D276" s="2">
+        <v>3</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>10</v>
+      </c>
+      <c r="B277" t="s">
+        <v>75</v>
+      </c>
+      <c r="C277" t="s">
+        <v>81</v>
+      </c>
+      <c r="D277" s="2">
+        <v>1</v>
+      </c>
+      <c r="E277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>10</v>
+      </c>
+      <c r="B278" t="s">
+        <v>75</v>
+      </c>
+      <c r="C278" t="s">
+        <v>81</v>
+      </c>
+      <c r="D278" s="2">
+        <v>2</v>
+      </c>
+      <c r="E278">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>10</v>
+      </c>
+      <c r="B279" t="s">
+        <v>75</v>
+      </c>
+      <c r="C279" t="s">
+        <v>81</v>
+      </c>
+      <c r="D279" s="2">
+        <v>3</v>
+      </c>
+      <c r="E279">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>10</v>
+      </c>
+      <c r="B280" t="s">
+        <v>75</v>
+      </c>
+      <c r="C280" t="s">
+        <v>81</v>
+      </c>
+      <c r="D280" s="2">
+        <v>4</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>10</v>
+      </c>
+      <c r="B281" t="s">
+        <v>75</v>
+      </c>
+      <c r="C281" t="s">
+        <v>82</v>
+      </c>
+      <c r="D281" s="2">
+        <v>1</v>
+      </c>
+      <c r="E281">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>10</v>
+      </c>
+      <c r="B282" t="s">
+        <v>75</v>
+      </c>
+      <c r="C282" t="s">
+        <v>82</v>
+      </c>
+      <c r="D282" s="2">
+        <v>2</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>10</v>
+      </c>
+      <c r="B283" t="s">
+        <v>75</v>
+      </c>
+      <c r="C283" t="s">
+        <v>83</v>
+      </c>
+      <c r="D283" s="2">
+        <v>1</v>
+      </c>
+      <c r="E283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>10</v>
+      </c>
+      <c r="B284" t="s">
+        <v>75</v>
+      </c>
+      <c r="C284" t="s">
+        <v>83</v>
+      </c>
+      <c r="D284" s="2">
+        <v>2</v>
+      </c>
+      <c r="E284">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>10</v>
+      </c>
+      <c r="B285" t="s">
+        <v>75</v>
+      </c>
+      <c r="C285" t="s">
+        <v>83</v>
+      </c>
+      <c r="D285" s="2">
+        <v>3</v>
+      </c>
+      <c r="E285">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>10</v>
+      </c>
+      <c r="B286" t="s">
+        <v>75</v>
+      </c>
+      <c r="C286" t="s">
+        <v>83</v>
+      </c>
+      <c r="D286" s="2">
+        <v>4</v>
+      </c>
+      <c r="E286">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>10</v>
+      </c>
+      <c r="B287" t="s">
+        <v>75</v>
+      </c>
+      <c r="C287" t="s">
+        <v>83</v>
+      </c>
+      <c r="D287" s="2">
+        <v>5</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>10</v>
+      </c>
+      <c r="B288" t="s">
+        <v>75</v>
+      </c>
+      <c r="C288" t="s">
+        <v>84</v>
+      </c>
+      <c r="D288" s="2">
+        <v>1</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>10</v>
+      </c>
+      <c r="B289" t="s">
+        <v>75</v>
+      </c>
+      <c r="C289" t="s">
+        <v>84</v>
+      </c>
+      <c r="D289" s="2">
+        <v>2</v>
+      </c>
+      <c r="E289">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>10</v>
+      </c>
+      <c r="B290" t="s">
+        <v>75</v>
+      </c>
+      <c r="C290" t="s">
+        <v>84</v>
+      </c>
+      <c r="D290" s="2">
+        <v>3</v>
+      </c>
+      <c r="E290">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>10</v>
+      </c>
+      <c r="B291" t="s">
+        <v>75</v>
+      </c>
+      <c r="C291" t="s">
+        <v>84</v>
+      </c>
+      <c r="D291" s="2">
+        <v>4</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>10</v>
+      </c>
+      <c r="B292" t="s">
+        <v>75</v>
+      </c>
+      <c r="C292" t="s">
+        <v>85</v>
+      </c>
+      <c r="D292" s="2">
+        <v>1</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>10</v>
+      </c>
+      <c r="B293" t="s">
+        <v>75</v>
+      </c>
+      <c r="C293" t="s">
+        <v>85</v>
+      </c>
+      <c r="D293" s="2">
+        <v>2</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>10</v>
+      </c>
+      <c r="B294" t="s">
+        <v>75</v>
+      </c>
+      <c r="C294" t="s">
+        <v>86</v>
+      </c>
+      <c r="D294" s="2">
+        <v>1</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>10</v>
+      </c>
+      <c r="B295" t="s">
+        <v>75</v>
+      </c>
+      <c r="C295" t="s">
+        <v>86</v>
+      </c>
+      <c r="D295" s="2">
+        <v>2</v>
+      </c>
+      <c r="E295">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>10</v>
+      </c>
+      <c r="B296" t="s">
+        <v>75</v>
+      </c>
+      <c r="C296" t="s">
+        <v>86</v>
+      </c>
+      <c r="D296" s="2">
+        <v>3</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>10</v>
+      </c>
+      <c r="B297" t="s">
+        <v>75</v>
+      </c>
+      <c r="C297" t="s">
+        <v>87</v>
+      </c>
+      <c r="D297" s="2">
+        <v>1</v>
+      </c>
+      <c r="E297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>10</v>
+      </c>
+      <c r="B298" t="s">
+        <v>75</v>
+      </c>
+      <c r="C298" t="s">
+        <v>87</v>
+      </c>
+      <c r="D298" s="2">
+        <v>2</v>
+      </c>
+      <c r="E298">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>10</v>
+      </c>
+      <c r="B299" t="s">
+        <v>75</v>
+      </c>
+      <c r="C299" t="s">
+        <v>87</v>
+      </c>
+      <c r="D299" s="2">
+        <v>3</v>
+      </c>
+      <c r="E299">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>10</v>
+      </c>
+      <c r="B300" t="s">
+        <v>75</v>
+      </c>
+      <c r="C300" t="s">
+        <v>87</v>
+      </c>
+      <c r="D300" s="2">
+        <v>4</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>10</v>
+      </c>
+      <c r="B301" t="s">
+        <v>75</v>
+      </c>
+      <c r="C301" t="s">
+        <v>88</v>
+      </c>
+      <c r="D301" s="2">
+        <v>1</v>
+      </c>
+      <c r="E301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>10</v>
+      </c>
+      <c r="B302" t="s">
+        <v>75</v>
+      </c>
+      <c r="C302" t="s">
+        <v>88</v>
+      </c>
+      <c r="D302" s="2">
+        <v>2</v>
+      </c>
+      <c r="E302">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>10</v>
+      </c>
+      <c r="B303" t="s">
+        <v>75</v>
+      </c>
+      <c r="C303" t="s">
+        <v>88</v>
+      </c>
+      <c r="D303" s="2">
+        <v>3</v>
+      </c>
+      <c r="E303">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>10</v>
+      </c>
+      <c r="B304" t="s">
+        <v>75</v>
+      </c>
+      <c r="C304" t="s">
+        <v>88</v>
+      </c>
+      <c r="D304" s="2">
+        <v>4</v>
+      </c>
+      <c r="E304">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>10</v>
+      </c>
+      <c r="B305" t="s">
+        <v>75</v>
+      </c>
+      <c r="C305" t="s">
+        <v>88</v>
+      </c>
+      <c r="D305" s="2">
+        <v>5</v>
+      </c>
+      <c r="E305">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>10</v>
+      </c>
+      <c r="B306" t="s">
+        <v>75</v>
+      </c>
+      <c r="C306" t="s">
+        <v>88</v>
+      </c>
+      <c r="D306" s="2">
+        <v>6</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/base_besmart_v2.xlsx
+++ b/base_besmart_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BankRio\OneDrive - BankRio Investimentos e Consultoria Ltda - ME\Área de Trabalho\Projeto simulador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09ADBEC-266D-451D-9CDD-C23F4D7DB7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A79C173-2CDC-4F03-95AE-5CBCEB59D802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DF51982C-90FB-4A4C-9760-B6C8573E55BD}"/>
   </bookViews>
@@ -25,26 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="129">
   <si>
     <t>Consórcio</t>
   </si>
   <si>
-    <t xml:space="preserve">Imobiliário </t>
-  </si>
-  <si>
-    <t>Automóveis</t>
-  </si>
-  <si>
-    <t>Rebel</t>
-  </si>
-  <si>
-    <t>Credito</t>
-  </si>
-  <si>
-    <t>home equity</t>
-  </si>
-  <si>
     <t>Câmbio</t>
   </si>
   <si>
@@ -186,12 +171,6 @@
     <t>Sulamérica Prestige Esporádico</t>
   </si>
   <si>
-    <t>PJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plano de Saúde </t>
-  </si>
-  <si>
     <t>Plano de Saúde (PF - Coletivo)</t>
   </si>
   <si>
@@ -292,6 +271,147 @@
   </si>
   <si>
     <t>Prima Vida - Dental</t>
+  </si>
+  <si>
+    <t>Precatório</t>
+  </si>
+  <si>
+    <t>Crédito</t>
+  </si>
+  <si>
+    <t>Crédito XP</t>
+  </si>
+  <si>
+    <t>Coleteralizado</t>
+  </si>
+  <si>
+    <t>BV - Financiamento de Auto(Mín. 5k)</t>
+  </si>
+  <si>
+    <t>Creditas - Auto Equity(Mín. 5k)</t>
+  </si>
+  <si>
+    <t>BV - Auto Equity(Mín. 5k)</t>
+  </si>
+  <si>
+    <t>Porto Seguro - Financiamento de Auto</t>
+  </si>
+  <si>
+    <t>BMG - Antecipação FGTS</t>
+  </si>
+  <si>
+    <t>Monetare - Financiamento Imobiliário</t>
+  </si>
+  <si>
+    <t>Cashme - Home Equity</t>
+  </si>
+  <si>
+    <t>Creditas - Home Equity</t>
+  </si>
+  <si>
+    <t>Santander - Home Equity</t>
+  </si>
+  <si>
+    <t>Bloxs - Crowdfunding</t>
+  </si>
+  <si>
+    <t>Empréstimo</t>
+  </si>
+  <si>
+    <t>Daycore Digital - Capital de Giro Clean</t>
+  </si>
+  <si>
+    <t>IOUU - Capital de Giro Clean</t>
+  </si>
+  <si>
+    <t>Gyra+ - Capital de Giro Clean</t>
+  </si>
+  <si>
+    <t>Pjus</t>
+  </si>
+  <si>
+    <t>JIVE</t>
+  </si>
+  <si>
+    <t>ProSolutti - Processos Trabalhistas</t>
+  </si>
+  <si>
+    <t>STRM - Antecipação de Recebiveis Digitais Musicais</t>
+  </si>
+  <si>
+    <t>Anttecipe - Processos Trabalhistas</t>
+  </si>
+  <si>
+    <t>GARSON - Antecipação de Recebiveis</t>
+  </si>
+  <si>
+    <t>Operações Estruturadas com Garantia Reais(Bens e Recebíveis)</t>
+  </si>
+  <si>
+    <t>Ulend - Capital de Giro Clean</t>
+  </si>
+  <si>
+    <t>Precato</t>
+  </si>
+  <si>
+    <t>LTZ Capital</t>
+  </si>
+  <si>
+    <t>Acredite</t>
+  </si>
+  <si>
+    <t>EasyPrec</t>
+  </si>
+  <si>
+    <t>JEEVES - Capital de Giro Clean</t>
+  </si>
+  <si>
+    <t>Planta Consultoria - Agro</t>
+  </si>
+  <si>
+    <t>UHY - Crédito PJ</t>
+  </si>
+  <si>
+    <t>LISTO - Antecipação de maquininhas CDC Capital de Giro até 24x</t>
+  </si>
+  <si>
+    <t>RM2 - Antacipação de Recebiveis</t>
+  </si>
+  <si>
+    <t>LOARA - PJ</t>
+  </si>
+  <si>
+    <t>BANEFORT - PJ</t>
+  </si>
+  <si>
+    <t>Plano de Saúde (PJ)</t>
+  </si>
+  <si>
+    <t>Golden Cross</t>
+  </si>
+  <si>
+    <t>Intermédica</t>
+  </si>
+  <si>
+    <t>Sulamérica</t>
+  </si>
+  <si>
+    <t>Assim</t>
+  </si>
+  <si>
+    <t>Amil</t>
+  </si>
+  <si>
+    <t>Bradesco</t>
+  </si>
+  <si>
+    <t>Unimed</t>
+  </si>
+  <si>
+    <t>Porto Seguro</t>
+  </si>
+  <si>
+    <t>Omint</t>
   </si>
 </sst>
 </file>
@@ -362,7 +482,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,40 +797,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4D2DEC-1B34-4F16-81B5-68703BD101CC}">
-  <dimension ref="A1:E306"/>
+  <dimension ref="A1:E340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="E307" sqref="E307"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="J298" sqref="J298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -722,12 +842,12 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.01</v>
+        <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -739,12 +859,12 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>0.01</v>
+        <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -756,12 +876,12 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>0.01</v>
+        <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -773,12 +893,12 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>0.01</v>
+        <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -790,12 +910,12 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>0.01</v>
+        <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -807,12 +927,12 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>0.01</v>
+        <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -824,12 +944,12 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>0.01</v>
+        <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -841,12 +961,12 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>0.01</v>
+        <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -858,12 +978,12 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>0.01</v>
+        <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -875,12 +995,12 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>0.01</v>
+        <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -892,12 +1012,12 @@
         <v>11</v>
       </c>
       <c r="E12">
-        <v>0.01</v>
+        <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -909,7 +1029,7 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <v>0.01</v>
+        <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -926,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>2.8000000000000001E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,7 +1063,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>2.8000000000000001E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -960,7 +1080,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>2.8000000000000001E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -977,7 +1097,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>2.8000000000000001E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -994,7 +1114,7 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>2.8000000000000001E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,7 +1131,7 @@
         <v>6</v>
       </c>
       <c r="E19">
-        <v>2.8000000000000001E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,7 +1148,7 @@
         <v>7</v>
       </c>
       <c r="E20">
-        <v>2.8000000000000001E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1045,7 +1165,7 @@
         <v>8</v>
       </c>
       <c r="E21">
-        <v>2.8000000000000001E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,7 +1182,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>2.8000000000000001E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,7 +1199,7 @@
         <v>10</v>
       </c>
       <c r="E23">
-        <v>2.8000000000000001E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,7 +1216,7 @@
         <v>11</v>
       </c>
       <c r="E24">
-        <v>2.8000000000000001E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1113,7 +1233,7 @@
         <v>12</v>
       </c>
       <c r="E25">
-        <v>2.8000000000000001E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1130,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>2.5600000000000001E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,7 +1267,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>2.5600000000000001E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1164,7 +1284,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>2.5600000000000001E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="E29">
-        <v>2.5600000000000001E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,7 +1318,7 @@
         <v>5</v>
       </c>
       <c r="E30">
-        <v>2.5600000000000001E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1215,7 +1335,7 @@
         <v>6</v>
       </c>
       <c r="E31">
-        <v>2.5600000000000001E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1232,7 +1352,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>2.5600000000000001E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1249,7 +1369,7 @@
         <v>8</v>
       </c>
       <c r="E33">
-        <v>2.5600000000000001E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1266,7 +1386,7 @@
         <v>9</v>
       </c>
       <c r="E34">
-        <v>2.5600000000000001E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1283,7 +1403,7 @@
         <v>10</v>
       </c>
       <c r="E35">
-        <v>2.5600000000000001E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1300,7 +1420,7 @@
         <v>11</v>
       </c>
       <c r="E36">
-        <v>2.5600000000000001E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1317,1939 +1437,1939 @@
         <v>12</v>
       </c>
       <c r="E37">
-        <v>2.5600000000000001E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>1.3599999999999999E-2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
       </c>
       <c r="E39">
-        <v>1.3599999999999999E-2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
       </c>
       <c r="E40">
-        <v>1.3599999999999999E-2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D41" s="1">
         <v>4</v>
       </c>
       <c r="E41">
-        <v>1.3599999999999999E-2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D42" s="1">
         <v>5</v>
       </c>
       <c r="E42">
-        <v>1.3599999999999999E-2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D43" s="1">
         <v>6</v>
       </c>
       <c r="E43">
-        <v>1.3599999999999999E-2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D44" s="1">
         <v>7</v>
       </c>
       <c r="E44">
-        <v>1.3599999999999999E-2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D45" s="1">
         <v>8</v>
       </c>
       <c r="E45">
-        <v>1.3599999999999999E-2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D46" s="1">
         <v>9</v>
       </c>
       <c r="E46">
-        <v>1.3599999999999999E-2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D47" s="1">
         <v>10</v>
       </c>
       <c r="E47">
-        <v>1.3599999999999999E-2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D48" s="1">
         <v>11</v>
       </c>
       <c r="E48">
-        <v>1.3599999999999999E-2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D49" s="1">
         <v>12</v>
       </c>
       <c r="E49">
-        <v>1.3599999999999999E-2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
       </c>
       <c r="E50">
-        <v>1.0200000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D51" s="1">
         <v>2</v>
       </c>
       <c r="E51">
-        <v>1.0200000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D52" s="1">
         <v>3</v>
       </c>
       <c r="E52">
-        <v>1.0200000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D53" s="1">
         <v>4</v>
       </c>
       <c r="E53">
-        <v>1.0200000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D54" s="1">
         <v>5</v>
       </c>
       <c r="E54">
-        <v>1.0200000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D55" s="1">
         <v>6</v>
       </c>
       <c r="E55">
-        <v>1.0200000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D56" s="1">
         <v>7</v>
       </c>
       <c r="E56">
-        <v>1.0200000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D57" s="1">
         <v>8</v>
       </c>
       <c r="E57">
-        <v>1.0200000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D58" s="1">
         <v>9</v>
       </c>
       <c r="E58">
-        <v>1.0200000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D59" s="1">
         <v>10</v>
       </c>
       <c r="E59">
-        <v>1.0200000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D60" s="1">
         <v>11</v>
       </c>
       <c r="E60">
-        <v>1.0200000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D61" s="1">
         <v>12</v>
       </c>
       <c r="E61">
-        <v>1.0200000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D63" s="1">
         <v>2</v>
       </c>
       <c r="E63">
-        <v>0.02</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D64" s="1">
         <v>3</v>
       </c>
       <c r="E64">
-        <v>0.02</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D65" s="1">
         <v>4</v>
       </c>
       <c r="E65">
-        <v>0.02</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D66" s="1">
         <v>5</v>
       </c>
       <c r="E66">
-        <v>0.02</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D67" s="1">
         <v>6</v>
       </c>
       <c r="E67">
-        <v>0.02</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D68" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E68">
-        <v>0.02</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D69" s="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E69">
-        <v>0.02</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D70" s="1">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E70">
-        <v>0.02</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D71" s="1">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E71">
-        <v>0.02</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D72" s="1">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="E72">
-        <v>0.02</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D73" s="1">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E73">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D74" s="1">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="E74">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D75" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75">
-        <v>0.01</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D76" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E76">
-        <v>0.01</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D77" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E77">
-        <v>0.01</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D78" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E78">
-        <v>0.01</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D79" s="1">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E79">
-        <v>0.01</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D80" s="1">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="E80">
-        <v>0.01</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D81" s="1">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="E81">
-        <v>0.01</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D82" s="1">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="E82">
-        <v>0.01</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D83" s="1">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="E83">
-        <v>0.01</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D84" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E84">
-        <v>0.01</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D85" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E85">
-        <v>0.01</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B86" t="s">
         <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D86" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E86">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B87" t="s">
         <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D87" s="1">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E87">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B88" t="s">
         <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D88" s="1">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E88">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B89" t="s">
         <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D89" s="1">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="E89">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B90" t="s">
         <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D90" s="1">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="E90">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B91" t="s">
         <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D91" s="1">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="E91">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B92" t="s">
         <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D92" s="1">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="E92">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B93" t="s">
         <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D93" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E93">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B94" t="s">
         <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D94" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E94">
-        <v>0.35</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B95" t="s">
         <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D95" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E95">
-        <v>0.35</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B96" t="s">
         <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D96" s="1">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E96">
-        <v>0.35</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B97" t="s">
         <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D97" s="1">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E97">
-        <v>0.35</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D98" s="1">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="E98">
-        <v>3.5000000000000003E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D99" s="1">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="E99">
-        <v>3.5000000000000003E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D100" s="1">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="E100">
-        <v>3.5000000000000003E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D101" s="1">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="E101">
-        <v>3.5000000000000003E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C102" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D102" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E102">
-        <v>3.5000000000000003E-2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C103" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D103" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E103">
-        <v>3.5000000000000003E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C104" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D104" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E104">
-        <v>3.5000000000000003E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C105" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D105" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>3.5000000000000003E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C106" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D106" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E106">
-        <v>3.5000000000000003E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D107" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E107">
-        <v>3.5000000000000003E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C108" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D108" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>3.5000000000000003E-2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C109" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D109" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E109">
-        <v>3.5000000000000003E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D110" s="1">
         <v>1</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C111" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D111" s="1">
         <v>2</v>
       </c>
       <c r="E111">
-        <v>0.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C112" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D112" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E112">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C113" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D113" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E113">
-        <v>0.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D114" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E114">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C115" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D115" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E115">
-        <v>0.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C116" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D116" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D117" s="1">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E117">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D118" s="1">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E118">
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C119" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D119" s="1">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="E119">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C120" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D120" s="1">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="E120">
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C121" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D121" s="1">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="E121">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C122" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D122" s="1">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="E122">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C123" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D123" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E123">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C124" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D124" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>0.318</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C125" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D125" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E125">
-        <v>0.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C126" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D126" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E126">
-        <v>0.21</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C127" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D127" s="1">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="E127">
-        <v>0.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C128" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D128" s="1">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="E128">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C129" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D129" s="1">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="E129">
-        <v>0.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C130" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D130" s="1">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="E130">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C131" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D131" s="1">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="E131">
-        <v>0.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C132" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D132" s="1">
         <v>1</v>
       </c>
       <c r="E132">
-        <v>1.5</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B133" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C133" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D133" s="1">
         <v>2</v>
       </c>
       <c r="E133">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B134" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C134" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D134" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E134">
-        <v>0.2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C135" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D135" s="1">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E135">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C136" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D136" s="1">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E136">
-        <v>0.2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C137" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D137" s="1">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="E137">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B138" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C138" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D138" s="1">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="E138">
-        <v>0.2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B139" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C139" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D139" s="1">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="E139">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B140" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C140" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D140" s="1">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B141" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C141" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D141" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E141">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B142" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C142" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D142" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E142">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B143" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C143" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D143" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E143">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B144" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C144" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D144" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E144">
-        <v>7.4999999999999997E-2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B145" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C145" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D145" s="1">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="E145">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B146" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C146" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D146" s="1">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="E146">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B147" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C147" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D147" s="1">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="E147">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C148" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D148" s="1">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="E148">
-        <v>7.4999999999999997E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B149" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C149" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D149" s="1">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="E149">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B150" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D150" s="1">
         <v>1</v>
       </c>
       <c r="E150">
-        <v>0.5</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B151" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D151" s="1">
         <v>2</v>
@@ -3260,169 +3380,169 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B152" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
-      </c>
-      <c r="D152" s="1">
+        <v>49</v>
+      </c>
+      <c r="D152" s="2">
         <v>1</v>
       </c>
       <c r="E152">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B153" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C153" t="s">
-        <v>28</v>
-      </c>
-      <c r="D153" s="1">
+        <v>49</v>
+      </c>
+      <c r="D153" s="2">
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B154" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C154" t="s">
-        <v>29</v>
-      </c>
-      <c r="D154" s="1">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="D154" s="2">
+        <v>3</v>
       </c>
       <c r="E154">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B155" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
-      </c>
-      <c r="D155" s="1">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="D155" s="2">
+        <v>1</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B156" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C156" t="s">
-        <v>30</v>
-      </c>
-      <c r="D156" s="1">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="D156" s="2">
+        <v>2</v>
       </c>
       <c r="E156">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B157" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C157" t="s">
-        <v>30</v>
-      </c>
-      <c r="D157" s="1">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="D157" s="2">
+        <v>3</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B158" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C158" t="s">
-        <v>31</v>
-      </c>
-      <c r="D158" s="1">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="D158" s="2">
+        <v>4</v>
       </c>
       <c r="E158">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B159" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C159" t="s">
-        <v>31</v>
-      </c>
-      <c r="D159" s="1">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="D159" s="2">
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B160" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C160" t="s">
-        <v>32</v>
-      </c>
-      <c r="D160" s="1">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="D160" s="2">
+        <v>2</v>
       </c>
       <c r="E160">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B161" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C161" t="s">
-        <v>32</v>
-      </c>
-      <c r="D161" s="1">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="D161" s="2">
+        <v>3</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -3430,67 +3550,67 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B162" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C162" t="s">
-        <v>33</v>
-      </c>
-      <c r="D162" s="1">
+        <v>52</v>
+      </c>
+      <c r="D162" s="2">
         <v>1</v>
       </c>
       <c r="E162">
-        <v>0.35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B163" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C163" t="s">
-        <v>33</v>
-      </c>
-      <c r="D163" s="1">
+        <v>52</v>
+      </c>
+      <c r="D163" s="2">
         <v>2</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B164" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C164" t="s">
-        <v>34</v>
-      </c>
-      <c r="D164" s="1">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="D164" s="2">
+        <v>3</v>
       </c>
       <c r="E164">
-        <v>3.5000000000000003E-2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B165" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C165" t="s">
-        <v>34</v>
-      </c>
-      <c r="D165" s="1">
-        <v>2</v>
+        <v>52</v>
+      </c>
+      <c r="D165" s="2">
+        <v>4</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -3498,101 +3618,101 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B166" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C166" t="s">
-        <v>35</v>
-      </c>
-      <c r="D166" s="1">
+        <v>62</v>
+      </c>
+      <c r="D166" s="2">
         <v>1</v>
       </c>
       <c r="E166">
-        <v>3.5000000000000003E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B167" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C167" t="s">
-        <v>35</v>
-      </c>
-      <c r="D167" s="1">
+        <v>62</v>
+      </c>
+      <c r="D167" s="2">
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B168" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C168" t="s">
-        <v>36</v>
-      </c>
-      <c r="D168" s="1">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="D168" s="2">
+        <v>3</v>
       </c>
       <c r="E168">
-        <v>3.5000000000000003E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B169" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C169" t="s">
-        <v>36</v>
-      </c>
-      <c r="D169" s="1">
-        <v>2</v>
+        <v>53</v>
+      </c>
+      <c r="D169" s="2">
+        <v>1</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B170" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C170" t="s">
-        <v>37</v>
-      </c>
-      <c r="D170" s="1">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="D170" s="2">
+        <v>2</v>
       </c>
       <c r="E170">
-        <v>0.04</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B171" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C171" t="s">
-        <v>37</v>
-      </c>
-      <c r="D171" s="1">
-        <v>2</v>
+        <v>53</v>
+      </c>
+      <c r="D171" s="2">
+        <v>3</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -3600,32 +3720,32 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B172" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C172" t="s">
-        <v>38</v>
-      </c>
-      <c r="D172" s="1">
+        <v>54</v>
+      </c>
+      <c r="D172" s="2">
         <v>1</v>
       </c>
       <c r="E172">
-        <v>0.04</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B173" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C173" t="s">
-        <v>38</v>
-      </c>
-      <c r="D173" s="1">
+        <v>54</v>
+      </c>
+      <c r="D173" s="2">
         <v>2</v>
       </c>
       <c r="E173">
@@ -3634,101 +3754,101 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B174" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C174" t="s">
-        <v>39</v>
-      </c>
-      <c r="D174" s="1">
+        <v>55</v>
+      </c>
+      <c r="D174" s="2">
         <v>1</v>
       </c>
       <c r="E174">
-        <v>3.5000000000000003E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B175" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C175" t="s">
-        <v>39</v>
-      </c>
-      <c r="D175" s="1">
+        <v>55</v>
+      </c>
+      <c r="D175" s="2">
         <v>2</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B176" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C176" t="s">
-        <v>40</v>
-      </c>
-      <c r="D176" s="1">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="D176" s="2">
+        <v>3</v>
       </c>
       <c r="E176">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B177" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C177" t="s">
-        <v>40</v>
-      </c>
-      <c r="D177" s="1">
-        <v>2</v>
+        <v>56</v>
+      </c>
+      <c r="D177" s="2">
+        <v>1</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B178" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C178" t="s">
-        <v>41</v>
-      </c>
-      <c r="D178" s="1">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="D178" s="2">
+        <v>2</v>
       </c>
       <c r="E178">
-        <v>0.04</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B179" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C179" t="s">
-        <v>41</v>
-      </c>
-      <c r="D179" s="1">
-        <v>2</v>
+        <v>56</v>
+      </c>
+      <c r="D179" s="2">
+        <v>3</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -3736,67 +3856,67 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B180" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C180" t="s">
-        <v>42</v>
-      </c>
-      <c r="D180" s="1">
+        <v>57</v>
+      </c>
+      <c r="D180" s="2">
         <v>1</v>
       </c>
       <c r="E180">
-        <v>0.04</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B181" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C181" t="s">
-        <v>42</v>
-      </c>
-      <c r="D181" s="1">
+        <v>57</v>
+      </c>
+      <c r="D181" s="2">
         <v>2</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B182" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C182" t="s">
-        <v>43</v>
-      </c>
-      <c r="D182" s="1">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="D182" s="2">
+        <v>3</v>
       </c>
       <c r="E182">
-        <v>2.5000000000000001E-2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B183" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C183" t="s">
-        <v>43</v>
-      </c>
-      <c r="D183" s="1">
-        <v>2</v>
+        <v>57</v>
+      </c>
+      <c r="D183" s="2">
+        <v>4</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -3804,101 +3924,101 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B184" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C184" t="s">
-        <v>44</v>
-      </c>
-      <c r="D184" s="1">
+        <v>58</v>
+      </c>
+      <c r="D184" s="2">
         <v>1</v>
       </c>
       <c r="E184">
-        <v>2.5000000000000001E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B185" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C185" t="s">
-        <v>44</v>
-      </c>
-      <c r="D185" s="1">
+        <v>58</v>
+      </c>
+      <c r="D185" s="2">
         <v>2</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B186" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C186" t="s">
-        <v>45</v>
-      </c>
-      <c r="D186" s="1">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="D186" s="2">
+        <v>3</v>
       </c>
       <c r="E186">
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B187" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C187" t="s">
-        <v>45</v>
-      </c>
-      <c r="D187" s="1">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="D187" s="2">
+        <v>1</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B188" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C188" t="s">
-        <v>47</v>
-      </c>
-      <c r="D188" s="1">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="D188" s="2">
+        <v>2</v>
       </c>
       <c r="E188">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B189" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C189" t="s">
-        <v>47</v>
-      </c>
-      <c r="D189" s="1">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="D189" s="2">
+        <v>3</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -3906,32 +4026,32 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B190" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C190" t="s">
-        <v>48</v>
-      </c>
-      <c r="D190" s="1">
+        <v>60</v>
+      </c>
+      <c r="D190" s="2">
         <v>1</v>
       </c>
       <c r="E190">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B191" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C191" t="s">
-        <v>48</v>
-      </c>
-      <c r="D191" s="1">
+        <v>60</v>
+      </c>
+      <c r="D191" s="2">
         <v>2</v>
       </c>
       <c r="E191">
@@ -3940,101 +4060,101 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B192" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C192" t="s">
-        <v>49</v>
-      </c>
-      <c r="D192" s="1">
+        <v>61</v>
+      </c>
+      <c r="D192" s="2">
         <v>1</v>
       </c>
       <c r="E192">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B193" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C193" t="s">
-        <v>49</v>
-      </c>
-      <c r="D193" s="1">
+        <v>61</v>
+      </c>
+      <c r="D193" s="2">
         <v>2</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B194" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C194" t="s">
-        <v>50</v>
-      </c>
-      <c r="D194" s="1">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="D194" s="2">
+        <v>3</v>
       </c>
       <c r="E194">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B195" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C195" t="s">
-        <v>50</v>
-      </c>
-      <c r="D195" s="1">
-        <v>2</v>
+        <v>63</v>
+      </c>
+      <c r="D195" s="2">
+        <v>1</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B196" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C196" t="s">
-        <v>51</v>
-      </c>
-      <c r="D196" s="1">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="D196" s="2">
+        <v>2</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B197" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C197" t="s">
-        <v>51</v>
-      </c>
-      <c r="D197" s="1">
-        <v>2</v>
+        <v>63</v>
+      </c>
+      <c r="D197" s="2">
+        <v>3</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -4042,32 +4162,32 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B198" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C198" t="s">
-        <v>52</v>
-      </c>
-      <c r="D198" s="1">
+        <v>64</v>
+      </c>
+      <c r="D198" s="2">
         <v>1</v>
       </c>
       <c r="E198">
-        <v>1.4999999999999999E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C199" t="s">
-        <v>52</v>
-      </c>
-      <c r="D199" s="1">
+        <v>64</v>
+      </c>
+      <c r="D199" s="2">
         <v>2</v>
       </c>
       <c r="E199">
@@ -4076,15 +4196,15 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B200" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C200" t="s">
-        <v>53</v>
-      </c>
-      <c r="D200" s="1">
+        <v>65</v>
+      </c>
+      <c r="D200" s="2">
         <v>1</v>
       </c>
       <c r="E200">
@@ -4093,84 +4213,84 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B201" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C201" t="s">
-        <v>53</v>
-      </c>
-      <c r="D201" s="1">
+        <v>65</v>
+      </c>
+      <c r="D201" s="2">
         <v>2</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B202" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C202" t="s">
-        <v>53</v>
-      </c>
-      <c r="D202" s="1">
+        <v>65</v>
+      </c>
+      <c r="D202" s="2">
         <v>3</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B203" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C203" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D203" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B204" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C204" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D204" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E204">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B205" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C205" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D205" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -4178,13 +4298,13 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B206" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C206" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D206" s="2">
         <v>1</v>
@@ -4195,101 +4315,101 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B207" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C207" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D207" s="2">
         <v>2</v>
       </c>
       <c r="E207">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B208" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C208" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D208" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E208">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B209" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C209" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D209" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B210" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C210" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D210" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B211" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C211" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D211" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E211">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B212" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C212" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D212" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -4297,13 +4417,13 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B213" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C213" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D213" s="2">
         <v>1</v>
@@ -4314,135 +4434,135 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B214" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C214" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D214" s="2">
         <v>2</v>
       </c>
       <c r="E214">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B215" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C215" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D215" s="2">
         <v>3</v>
       </c>
       <c r="E215">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B216" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C216" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D216" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B217" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C217" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D217" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B218" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C218" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D218" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E218">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B219" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C219" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D219" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B220" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C220" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D220" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B221" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C221" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D221" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E221">
         <v>0.5</v>
@@ -4450,16 +4570,16 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B222" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C222" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D222" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -4467,186 +4587,186 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B223" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C223" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D223" s="2">
         <v>1</v>
       </c>
       <c r="E223">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B224" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C224" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D224" s="2">
         <v>2</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B225" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C225" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D225" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B226" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C226" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D226" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E226">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B227" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C227" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D227" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B228" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C228" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D228" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B229" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C229" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D229" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E229">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B230" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C230" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D230" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B231" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C231" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D231" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B232" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C232" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D232" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E232">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B233" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C233" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D233" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E233">
         <v>0.5</v>
@@ -4654,118 +4774,118 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B234" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C234" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D234" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B235" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C235" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D235" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B236" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C236" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D236" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E236">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B237" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C237" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D237" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B238" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C238" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D238" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B239" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C239" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D239" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E239">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B240" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C240" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D240" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -4773,13 +4893,13 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B241" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C241" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D241" s="2">
         <v>1</v>
@@ -4790,13 +4910,13 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B242" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C242" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D242" s="2">
         <v>2</v>
@@ -4807,13 +4927,13 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B243" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C243" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D243" s="2">
         <v>1</v>
@@ -4824,30 +4944,30 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B244" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C244" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D244" s="2">
         <v>2</v>
       </c>
       <c r="E244">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B245" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C245" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D245" s="2">
         <v>3</v>
@@ -4858,13 +4978,13 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B246" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C246" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D246" s="2">
         <v>1</v>
@@ -4875,13 +4995,13 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B247" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C247" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D247" s="2">
         <v>2</v>
@@ -4892,271 +5012,271 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B248" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C248" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D248" s="2">
         <v>3</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B249" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C249" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D249" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B250" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C250" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D250" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B251" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C251" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D251" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B252" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C252" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D252" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E252">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B253" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C253" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D253" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E253">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B254" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C254" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D254" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B255" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C255" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D255" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B256" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C256" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D256" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B257" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C257" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D257" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B258" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C258" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D258" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E258">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B259" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C259" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D259" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B260" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C260" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D260" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E260">
-        <v>0.5</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B261" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C261" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D261" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E261">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B262" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C262" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D262" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E262">
-        <v>0.25</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B263" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C263" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D263" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -5164,101 +5284,101 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B264" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C264" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D264" s="2">
         <v>1</v>
       </c>
       <c r="E264">
-        <v>1</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B265" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C265" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D265" s="2">
         <v>2</v>
       </c>
       <c r="E265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B266" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C266" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D266" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E266">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B267" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C267" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D267" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B268" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C268" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D268" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E268">
-        <v>0.3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B269" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C269" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D269" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -5266,67 +5386,67 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B270" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C270" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D270" s="2">
         <v>1</v>
       </c>
       <c r="E270">
-        <v>1</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B271" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C271" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D271" s="2">
         <v>2</v>
       </c>
       <c r="E271">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B272" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C272" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D272" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E272">
-        <v>0.5</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B273" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C273" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D273" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -5334,237 +5454,237 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B274" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C274" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D274" s="2">
         <v>1</v>
       </c>
       <c r="E274">
-        <v>1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B275" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C275" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D275" s="2">
         <v>2</v>
       </c>
       <c r="E275">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B276" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C276" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D276" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E276">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B277" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C277" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D277" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B278" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="C278" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D278" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E278">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B279" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="C279" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D279" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E279">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B280" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C280" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D280" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E280">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B281" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C281" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D281" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E281">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B282" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C282" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D282" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E282">
-        <v>0</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B283" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C283" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D283" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B284" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C284" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D284" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E284">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B285" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C285" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D285" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E285">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B286" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C286" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D286" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E286">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B287" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C287" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="D287" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E287">
         <v>0</v>
@@ -5572,67 +5692,67 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B288" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="C288" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D288" s="2">
         <v>1</v>
       </c>
       <c r="E288">
-        <v>1</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B289" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="C289" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D289" s="2">
         <v>2</v>
       </c>
       <c r="E289">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B290" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C290" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D290" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E290">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B291" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C291" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D291" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -5640,84 +5760,84 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B292" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="C292" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D292" s="2">
         <v>1</v>
       </c>
       <c r="E292">
-        <v>1</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B293" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="C293" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D293" s="2">
         <v>2</v>
       </c>
       <c r="E293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B294" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C294" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="D294" s="2">
         <v>1</v>
       </c>
       <c r="E294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B295" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="C295" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D295" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E295">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B296" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C296" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D296" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -5725,67 +5845,67 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B297" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C297" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D297" s="2">
         <v>1</v>
       </c>
       <c r="E297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B298" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C298" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="D298" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E298">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B299" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C299" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D299" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E299">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B300" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C300" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D300" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -5793,103 +5913,681 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B301" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C301" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D301" s="2">
         <v>1</v>
       </c>
       <c r="E301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B302" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="C302" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="D302" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E302">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B303" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C303" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="D303" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E303">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B304" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C304" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="D304" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E304">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B305" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C305" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="D305" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E305">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B306" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C306" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="D306" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>83</v>
+      </c>
+      <c r="B307" t="s">
+        <v>83</v>
+      </c>
+      <c r="C307" t="s">
+        <v>118</v>
+      </c>
+      <c r="D307" s="2">
+        <v>1</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>5</v>
+      </c>
+      <c r="B308" t="s">
+        <v>119</v>
+      </c>
+      <c r="C308" t="s">
+        <v>123</v>
+      </c>
+      <c r="D308" s="2">
+        <v>1</v>
+      </c>
+      <c r="E308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>5</v>
+      </c>
+      <c r="B309" t="s">
+        <v>119</v>
+      </c>
+      <c r="C309" t="s">
+        <v>123</v>
+      </c>
+      <c r="D309" s="2">
+        <v>2</v>
+      </c>
+      <c r="E309">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>5</v>
+      </c>
+      <c r="B310" t="s">
+        <v>119</v>
+      </c>
+      <c r="C310" t="s">
+        <v>123</v>
+      </c>
+      <c r="D310" s="2">
+        <v>3</v>
+      </c>
+      <c r="E310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>5</v>
+      </c>
+      <c r="B311" t="s">
+        <v>119</v>
+      </c>
+      <c r="C311" t="s">
+        <v>123</v>
+      </c>
+      <c r="D311" s="2">
+        <v>4</v>
+      </c>
+      <c r="E311">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>5</v>
+      </c>
+      <c r="B312" t="s">
+        <v>119</v>
+      </c>
+      <c r="C312" t="s">
+        <v>124</v>
+      </c>
+      <c r="D312" s="2">
+        <v>1</v>
+      </c>
+      <c r="E312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>5</v>
+      </c>
+      <c r="B313" t="s">
+        <v>119</v>
+      </c>
+      <c r="C313" t="s">
+        <v>124</v>
+      </c>
+      <c r="D313" s="2">
+        <v>2</v>
+      </c>
+      <c r="E313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>5</v>
+      </c>
+      <c r="B314" t="s">
+        <v>119</v>
+      </c>
+      <c r="C314" t="s">
+        <v>124</v>
+      </c>
+      <c r="D314" s="2">
+        <v>3</v>
+      </c>
+      <c r="E314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>5</v>
+      </c>
+      <c r="B315" t="s">
+        <v>119</v>
+      </c>
+      <c r="C315" t="s">
+        <v>124</v>
+      </c>
+      <c r="D315" s="2">
+        <v>4</v>
+      </c>
+      <c r="E315">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>5</v>
+      </c>
+      <c r="B316" t="s">
+        <v>119</v>
+      </c>
+      <c r="C316" t="s">
+        <v>125</v>
+      </c>
+      <c r="D316" s="2">
+        <v>1</v>
+      </c>
+      <c r="E316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>5</v>
+      </c>
+      <c r="B317" t="s">
+        <v>119</v>
+      </c>
+      <c r="C317" t="s">
+        <v>125</v>
+      </c>
+      <c r="D317" s="2">
+        <v>2</v>
+      </c>
+      <c r="E317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>5</v>
+      </c>
+      <c r="B318" t="s">
+        <v>119</v>
+      </c>
+      <c r="C318" t="s">
+        <v>125</v>
+      </c>
+      <c r="D318" s="2">
+        <v>3</v>
+      </c>
+      <c r="E318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>5</v>
+      </c>
+      <c r="B319" t="s">
+        <v>119</v>
+      </c>
+      <c r="C319" t="s">
+        <v>125</v>
+      </c>
+      <c r="D319" s="2">
+        <v>4</v>
+      </c>
+      <c r="E319">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>5</v>
+      </c>
+      <c r="B320" t="s">
+        <v>119</v>
+      </c>
+      <c r="C320" t="s">
+        <v>122</v>
+      </c>
+      <c r="D320" s="2">
+        <v>1</v>
+      </c>
+      <c r="E320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>5</v>
+      </c>
+      <c r="B321" t="s">
+        <v>119</v>
+      </c>
+      <c r="C321" t="s">
+        <v>122</v>
+      </c>
+      <c r="D321" s="2">
+        <v>2</v>
+      </c>
+      <c r="E321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>5</v>
+      </c>
+      <c r="B322" t="s">
+        <v>119</v>
+      </c>
+      <c r="C322" t="s">
+        <v>122</v>
+      </c>
+      <c r="D322" s="2">
+        <v>3</v>
+      </c>
+      <c r="E322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>5</v>
+      </c>
+      <c r="B323" t="s">
+        <v>119</v>
+      </c>
+      <c r="C323" t="s">
+        <v>122</v>
+      </c>
+      <c r="D323" s="2">
+        <v>4</v>
+      </c>
+      <c r="E323">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>5</v>
+      </c>
+      <c r="B324" t="s">
+        <v>119</v>
+      </c>
+      <c r="C324" t="s">
+        <v>120</v>
+      </c>
+      <c r="D324" s="2">
+        <v>1</v>
+      </c>
+      <c r="E324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>5</v>
+      </c>
+      <c r="B325" t="s">
+        <v>119</v>
+      </c>
+      <c r="C325" t="s">
+        <v>120</v>
+      </c>
+      <c r="D325" s="2">
+        <v>2</v>
+      </c>
+      <c r="E325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>5</v>
+      </c>
+      <c r="B326" t="s">
+        <v>119</v>
+      </c>
+      <c r="C326" t="s">
+        <v>120</v>
+      </c>
+      <c r="D326" s="2">
+        <v>3</v>
+      </c>
+      <c r="E326">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>5</v>
+      </c>
+      <c r="B327" t="s">
+        <v>119</v>
+      </c>
+      <c r="C327" t="s">
+        <v>121</v>
+      </c>
+      <c r="D327" s="2">
+        <v>1</v>
+      </c>
+      <c r="E327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>5</v>
+      </c>
+      <c r="B328" t="s">
+        <v>119</v>
+      </c>
+      <c r="C328" t="s">
+        <v>121</v>
+      </c>
+      <c r="D328" s="2">
+        <v>2</v>
+      </c>
+      <c r="E328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>5</v>
+      </c>
+      <c r="B329" t="s">
+        <v>119</v>
+      </c>
+      <c r="C329" t="s">
+        <v>121</v>
+      </c>
+      <c r="D329" s="2">
+        <v>3</v>
+      </c>
+      <c r="E329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>5</v>
+      </c>
+      <c r="B330" t="s">
+        <v>119</v>
+      </c>
+      <c r="C330" t="s">
+        <v>121</v>
+      </c>
+      <c r="D330" s="2">
+        <v>4</v>
+      </c>
+      <c r="E330">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>5</v>
+      </c>
+      <c r="B331" t="s">
+        <v>119</v>
+      </c>
+      <c r="C331" t="s">
+        <v>126</v>
+      </c>
+      <c r="D331" s="2">
+        <v>1</v>
+      </c>
+      <c r="E331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>5</v>
+      </c>
+      <c r="B332" t="s">
+        <v>119</v>
+      </c>
+      <c r="C332" t="s">
+        <v>126</v>
+      </c>
+      <c r="D332" s="2">
+        <v>2</v>
+      </c>
+      <c r="E332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>5</v>
+      </c>
+      <c r="B333" t="s">
+        <v>119</v>
+      </c>
+      <c r="C333" t="s">
+        <v>127</v>
+      </c>
+      <c r="D333" s="2">
+        <v>1</v>
+      </c>
+      <c r="E333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>5</v>
+      </c>
+      <c r="B334" t="s">
+        <v>119</v>
+      </c>
+      <c r="C334" t="s">
+        <v>127</v>
+      </c>
+      <c r="D334" s="2">
+        <v>2</v>
+      </c>
+      <c r="E334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>5</v>
+      </c>
+      <c r="B335" t="s">
+        <v>119</v>
+      </c>
+      <c r="C335" t="s">
+        <v>127</v>
+      </c>
+      <c r="D335" s="2">
+        <v>3</v>
+      </c>
+      <c r="E335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>5</v>
+      </c>
+      <c r="B336" t="s">
+        <v>119</v>
+      </c>
+      <c r="C336" t="s">
+        <v>127</v>
+      </c>
+      <c r="D336" s="2">
+        <v>4</v>
+      </c>
+      <c r="E336">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>5</v>
+      </c>
+      <c r="B337" t="s">
+        <v>119</v>
+      </c>
+      <c r="C337" t="s">
+        <v>128</v>
+      </c>
+      <c r="D337" s="2">
+        <v>1</v>
+      </c>
+      <c r="E337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>5</v>
+      </c>
+      <c r="B338" t="s">
+        <v>119</v>
+      </c>
+      <c r="C338" t="s">
+        <v>128</v>
+      </c>
+      <c r="D338" s="2">
+        <v>2</v>
+      </c>
+      <c r="E338">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>5</v>
+      </c>
+      <c r="B339" t="s">
+        <v>119</v>
+      </c>
+      <c r="C339" t="s">
+        <v>128</v>
+      </c>
+      <c r="D339" s="2">
+        <v>3</v>
+      </c>
+      <c r="E339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>5</v>
+      </c>
+      <c r="B340" t="s">
+        <v>119</v>
+      </c>
+      <c r="C340" t="s">
+        <v>128</v>
+      </c>
+      <c r="D340" s="2">
+        <v>4</v>
+      </c>
+      <c r="E340">
         <v>0</v>
       </c>
     </row>

--- a/base_besmart_v2.xlsx
+++ b/base_besmart_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BankRio\OneDrive - BankRio Investimentos e Consultoria Ltda - ME\Área de Trabalho\Projeto simulador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A79C173-2CDC-4F03-95AE-5CBCEB59D802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB69FA3-ABE4-4775-93D9-2CCA89EC130E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DF51982C-90FB-4A4C-9760-B6C8573E55BD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DF51982C-90FB-4A4C-9760-B6C8573E55BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="137">
   <si>
     <t>Consórcio</t>
   </si>
@@ -412,13 +412,37 @@
   </si>
   <si>
     <t>Omint</t>
+  </si>
+  <si>
+    <t>Serviço</t>
+  </si>
+  <si>
+    <t>Avaliação</t>
+  </si>
+  <si>
+    <t>Imóveis</t>
+  </si>
+  <si>
+    <t>Lançamento</t>
+  </si>
+  <si>
+    <t>Consultoria e Incorporação</t>
+  </si>
+  <si>
+    <t>Imóveis Prontos</t>
+  </si>
+  <si>
+    <t>Indicando Comprador ou Vendedor</t>
+  </si>
+  <si>
+    <t>Indicando Comprador e Vendedor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,6 +452,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -479,10 +511,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4D2DEC-1B34-4F16-81B5-68703BD101CC}">
-  <dimension ref="A1:E340"/>
+  <dimension ref="A1:E351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="J298" sqref="J298"/>
+    <sheetView tabSelected="1" topLeftCell="A315" workbookViewId="0">
+      <selection activeCell="E336" sqref="E336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6591,6 +6624,179 @@
         <v>0</v>
       </c>
     </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>131</v>
+      </c>
+      <c r="B341" t="s">
+        <v>129</v>
+      </c>
+      <c r="C341" t="s">
+        <v>130</v>
+      </c>
+      <c r="D341" s="2">
+        <v>1</v>
+      </c>
+      <c r="E341">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>131</v>
+      </c>
+      <c r="B342" t="s">
+        <v>129</v>
+      </c>
+      <c r="C342" t="s">
+        <v>130</v>
+      </c>
+      <c r="D342" s="2">
+        <v>2</v>
+      </c>
+      <c r="E342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>131</v>
+      </c>
+      <c r="B343" t="s">
+        <v>129</v>
+      </c>
+      <c r="C343" t="s">
+        <v>132</v>
+      </c>
+      <c r="D343" s="2">
+        <v>1</v>
+      </c>
+      <c r="E343">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>131</v>
+      </c>
+      <c r="B344" t="s">
+        <v>129</v>
+      </c>
+      <c r="C344" t="s">
+        <v>132</v>
+      </c>
+      <c r="D344" s="2">
+        <v>2</v>
+      </c>
+      <c r="E344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>131</v>
+      </c>
+      <c r="B345" t="s">
+        <v>129</v>
+      </c>
+      <c r="C345" t="s">
+        <v>133</v>
+      </c>
+      <c r="D345" s="2">
+        <v>1</v>
+      </c>
+      <c r="E345">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>131</v>
+      </c>
+      <c r="B346" t="s">
+        <v>129</v>
+      </c>
+      <c r="C346" t="s">
+        <v>133</v>
+      </c>
+      <c r="D346" s="2">
+        <v>2</v>
+      </c>
+      <c r="E346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>131</v>
+      </c>
+      <c r="B347" t="s">
+        <v>134</v>
+      </c>
+      <c r="C347" t="s">
+        <v>135</v>
+      </c>
+      <c r="D347" s="2">
+        <v>1</v>
+      </c>
+      <c r="E347">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>131</v>
+      </c>
+      <c r="B348" t="s">
+        <v>134</v>
+      </c>
+      <c r="C348" t="s">
+        <v>135</v>
+      </c>
+      <c r="D348" s="2">
+        <v>2</v>
+      </c>
+      <c r="E348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>131</v>
+      </c>
+      <c r="B349" t="s">
+        <v>134</v>
+      </c>
+      <c r="C349" t="s">
+        <v>136</v>
+      </c>
+      <c r="D349" s="2">
+        <v>1</v>
+      </c>
+      <c r="E349">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>131</v>
+      </c>
+      <c r="B350" t="s">
+        <v>134</v>
+      </c>
+      <c r="C350" t="s">
+        <v>136</v>
+      </c>
+      <c r="D350" s="2">
+        <v>2</v>
+      </c>
+      <c r="E350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E351" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
